--- a/src/main/resources/DN720.xlsx
+++ b/src/main/resources/DN720.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1487" uniqueCount="1350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="1376">
   <si>
     <r>
       <rPr>
@@ -1445,9 +1445,6 @@
     <t>Android&amp;iOS</t>
   </si>
   <si>
-    <t>Warning message</t>
-  </si>
-  <si>
     <t>%ld 条告警信息</t>
   </si>
   <si>
@@ -1479,9 +1476,6 @@
   </si>
   <si>
     <t>오작동 경고</t>
-  </si>
-  <si>
-    <t>故障告警</t>
   </si>
   <si>
     <t>Android&amp;iOS</t>
@@ -2909,9 +2903,6 @@
     </r>
   </si>
   <si>
-    <t>TW</t>
-  </si>
-  <si>
     <t>HK</t>
   </si>
   <si>
@@ -4583,10 +4574,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>异常告警</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>異常告警</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4814,12 +4801,6 @@
     <t>random_deebot_load_error</t>
   </si>
   <si>
-    <t>random_deebot_btn_ignore</t>
-  </si>
-  <si>
-    <t>random_deebot_btn_check</t>
-  </si>
-  <si>
     <t>random_deebot_never</t>
   </si>
   <si>
@@ -4836,21 +4817,6 @@
   </si>
   <si>
     <t>random_deebot_sidebrush_due_hint1</t>
-  </si>
-  <si>
-    <t>random_deebot_sidebrush_due_hint2</t>
-  </si>
-  <si>
-    <t>random_deebot_mainbrush_low_hint1</t>
-  </si>
-  <si>
-    <t>random_deebot_mainbrush_low_hint2</t>
-  </si>
-  <si>
-    <t>random_deebot_mainbrush_due_hint1</t>
-  </si>
-  <si>
-    <t>random_deebot_mainbrush_due_hint2</t>
   </si>
   <si>
     <t>random_deebot_btn_known</t>
@@ -4926,15 +4892,37 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>random_deebot_confirm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>random_deebot_cancel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>random_deebot_ROLLER_consumables</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>random_deebot_more</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天</t>
+  </si>
+  <si>
+    <t>매일</t>
+  </si>
+  <si>
+    <t>Every day</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>random_deebot_switch_task</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>random_deebot_confirm</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>random_deebot_cancel</t>
+    <t>random_deebot_everyday</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -4942,12 +4930,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>random_deebot_ROLLER_consumables</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>random_deebot_more</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>random_deebot_suspend_malfunction</t>
+  </si>
+  <si>
+    <t>random_deebot_suspend_detail</t>
   </si>
   <si>
     <r>
@@ -4965,12 +4951,124 @@
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>random_deebot_drop_malfunction</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>random_deebot_drop_detail</t>
+  </si>
+  <si>
+    <t>random_deebot_wheel_malfunction</t>
+  </si>
+  <si>
+    <t>random_deebot_wheel_detail</t>
+  </si>
+  <si>
+    <t>random_deebot_sidebrush_malfunction</t>
+  </si>
+  <si>
+    <t>random_deebot_sidebrush_detail</t>
+  </si>
+  <si>
+    <t>random_deebot_mainbrush_malfunction</t>
+  </si>
+  <si>
+    <t>random_deebot_mainbrush_detail</t>
+  </si>
+  <si>
+    <t>random_deebot_dust_malfunction</t>
+  </si>
+  <si>
+    <t>random_deebot_dust_detail</t>
+  </si>
+  <si>
+    <t>故障告警</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>异常告警</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>random_deebot_remind_text_title</t>
+  </si>
+  <si>
+    <t>random_deebot_warn_info_sum</t>
+  </si>
+  <si>
+    <t>random_deebot_filter_due_hint1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>random_deebot_filter_low_hint1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>random_deebot_filter_low_hint2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>random_deebot_mainbrush_due_hint2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>random_deebot_sidebrush_due_hint2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>random_deebot_filter_due_hint2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>random_deebot_warn_text_title</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>random_deebot_warn1_text_title</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>random_deebot_low_battery_stop_charge</t>
+  </si>
+  <si>
+    <t>TW</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>random_deebot_btn_ignore</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>random_deebot_btn_check</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>random_deebot_warn_title</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Warning message</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>random_deebot_mainbrush_low_hint1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>random_deebot_mainbrush_low_hint2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>random_deebot_mainbrush_due_hint1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5084,8 +5182,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF6A8759"/>
+      <name val="Menlo-Regular"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5107,6 +5211,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5170,7 +5280,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="161">
+  <cellStyleXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -5340,8 +5450,12 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5469,8 +5583,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="161">
+  <cellStyles count="165">
     <cellStyle name="Normal 2" xfId="157"/>
     <cellStyle name="常规 2" xfId="155"/>
     <cellStyle name="常规 3" xfId="156"/>
@@ -5554,6 +5678,8 @@
     <cellStyle name="超链接" xfId="149" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="151" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="163" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -5631,6 +5757,8 @@
     <cellStyle name="访问过的超链接" xfId="150" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="152" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="164" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -5977,10 +6105,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J179"/>
+  <dimension ref="A1:J180"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="A131" sqref="A131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6000,7 +6128,7 @@
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1">
       <c r="A1" s="47" t="s">
-        <v>1245</v>
+        <v>1241</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>21</v>
@@ -6015,24 +6143,24 @@
         <v>24</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
       <c r="G1" s="20" t="s">
+        <v>1368</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>688</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>689</v>
+      </c>
+      <c r="J1" s="21" t="s">
         <v>690</v>
-      </c>
-      <c r="H1" s="34" t="s">
-        <v>691</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>692</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="2" spans="1:10" customFormat="1">
       <c r="A2" s="47" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>25</v>
@@ -6048,21 +6176,21 @@
         <v>28</v>
       </c>
       <c r="G2" s="38" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="H2" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="I2" s="24" t="s">
         <v>27</v>
       </c>
       <c r="J2" s="24" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
     </row>
     <row r="3" spans="1:10" customFormat="1">
       <c r="A3" s="47" t="s">
-        <v>1247</v>
+        <v>1243</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>29</v>
@@ -6078,21 +6206,21 @@
         <v>32</v>
       </c>
       <c r="G3" s="38" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="H3" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="I3" s="24" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="J3" s="24" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
     </row>
     <row r="4" spans="1:10" customFormat="1" ht="30">
       <c r="A4" s="47" t="s">
-        <v>1248</v>
+        <v>1244</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>33</v>
@@ -6108,21 +6236,21 @@
         <v>36</v>
       </c>
       <c r="G4" s="38" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="H4" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="I4" s="24" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="J4" s="24" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="47" t="s">
-        <v>1249</v>
+        <v>1245</v>
       </c>
       <c r="B5" s="19" t="s">
         <v>41</v>
@@ -6138,7 +6266,7 @@
         <v>44</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="H5" s="24" t="s">
         <v>41</v>
@@ -6147,12 +6275,12 @@
         <v>41</v>
       </c>
       <c r="J5" s="24" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="47" t="s">
-        <v>1250</v>
+        <v>1246</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>45</v>
@@ -6168,21 +6296,21 @@
         <v>48</v>
       </c>
       <c r="G6" s="38" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="H6" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="I6" s="24" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="J6" s="24" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
     </row>
     <row r="7" spans="1:10" customFormat="1">
       <c r="A7" s="47" t="s">
-        <v>1251</v>
+        <v>1247</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>49</v>
@@ -6198,21 +6326,21 @@
         <v>52</v>
       </c>
       <c r="G7" s="38" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="H7" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="I7" s="24" t="s">
         <v>51</v>
       </c>
       <c r="J7" s="24" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
     </row>
     <row r="8" spans="1:10" customFormat="1" ht="30">
       <c r="A8" s="47" t="s">
-        <v>1252</v>
+        <v>1248</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>55</v>
@@ -6234,15 +6362,15 @@
         <v>55</v>
       </c>
       <c r="I8" s="24" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="J8" s="24" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="4" customFormat="1">
       <c r="A9" s="47" t="s">
-        <v>1253</v>
+        <v>1249</v>
       </c>
       <c r="B9" s="19" t="s">
         <v>63</v>
@@ -6258,21 +6386,21 @@
         <v>66</v>
       </c>
       <c r="G9" s="23" t="s">
+        <v>714</v>
+      </c>
+      <c r="H9" s="44" t="s">
+        <v>715</v>
+      </c>
+      <c r="I9" s="24" t="s">
+        <v>716</v>
+      </c>
+      <c r="J9" s="24" t="s">
         <v>717</v>
-      </c>
-      <c r="H9" s="44" t="s">
-        <v>718</v>
-      </c>
-      <c r="I9" s="24" t="s">
-        <v>719</v>
-      </c>
-      <c r="J9" s="24" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="10" spans="1:10" customFormat="1">
       <c r="A10" s="47" t="s">
-        <v>1348</v>
+        <v>1335</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>138</v>
@@ -6294,15 +6422,15 @@
         <v>138</v>
       </c>
       <c r="I10" s="24" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="J10" s="24" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
     </row>
     <row r="11" spans="1:10" customFormat="1">
       <c r="A11" s="47" t="s">
-        <v>1346</v>
+        <v>1341</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>142</v>
@@ -6318,21 +6446,21 @@
         <v>145</v>
       </c>
       <c r="G11" s="38" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="H11" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="I11" s="24" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="J11" s="24" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="30">
       <c r="A12" s="47" t="s">
-        <v>1254</v>
+        <v>1250</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>154</v>
@@ -6348,21 +6476,21 @@
         <v>157</v>
       </c>
       <c r="G12" s="38" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="H12" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="I12" s="24" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="J12" s="24" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
     </row>
     <row r="13" spans="1:10" customFormat="1" ht="30">
       <c r="A13" s="47" t="s">
-        <v>1255</v>
+        <v>1251</v>
       </c>
       <c r="B13" s="19" t="s">
         <v>158</v>
@@ -6378,21 +6506,21 @@
         <v>161</v>
       </c>
       <c r="G13" s="23" t="s">
+        <v>767</v>
+      </c>
+      <c r="H13" s="44" t="s">
+        <v>768</v>
+      </c>
+      <c r="I13" s="24" t="s">
+        <v>769</v>
+      </c>
+      <c r="J13" s="24" t="s">
         <v>770</v>
-      </c>
-      <c r="H13" s="44" t="s">
-        <v>771</v>
-      </c>
-      <c r="I13" s="24" t="s">
-        <v>772</v>
-      </c>
-      <c r="J13" s="24" t="s">
-        <v>773</v>
       </c>
     </row>
     <row r="14" spans="1:10" customFormat="1">
       <c r="A14" s="47" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
       <c r="B14" s="19" t="s">
         <v>162</v>
@@ -6408,21 +6536,21 @@
         <v>165</v>
       </c>
       <c r="G14" s="23" t="s">
+        <v>771</v>
+      </c>
+      <c r="H14" s="44" t="s">
+        <v>772</v>
+      </c>
+      <c r="I14" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="J14" s="24" t="s">
         <v>774</v>
-      </c>
-      <c r="H14" s="44" t="s">
-        <v>775</v>
-      </c>
-      <c r="I14" s="24" t="s">
-        <v>776</v>
-      </c>
-      <c r="J14" s="24" t="s">
-        <v>777</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="4" customFormat="1" ht="30">
       <c r="A15" s="47" t="s">
-        <v>1347</v>
+        <v>1334</v>
       </c>
       <c r="B15" s="19" t="s">
         <v>166</v>
@@ -6438,21 +6566,21 @@
         <v>169</v>
       </c>
       <c r="G15" s="23" t="s">
+        <v>775</v>
+      </c>
+      <c r="H15" s="44" t="s">
+        <v>776</v>
+      </c>
+      <c r="I15" s="24" t="s">
+        <v>777</v>
+      </c>
+      <c r="J15" s="24" t="s">
         <v>778</v>
-      </c>
-      <c r="H15" s="44" t="s">
-        <v>779</v>
-      </c>
-      <c r="I15" s="24" t="s">
-        <v>780</v>
-      </c>
-      <c r="J15" s="24" t="s">
-        <v>781</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="30">
       <c r="A16" s="47" t="s">
-        <v>1257</v>
+        <v>1253</v>
       </c>
       <c r="B16" s="19" t="s">
         <v>170</v>
@@ -6468,21 +6596,21 @@
         <v>173</v>
       </c>
       <c r="G16" s="23" t="s">
+        <v>779</v>
+      </c>
+      <c r="H16" s="24" t="s">
+        <v>780</v>
+      </c>
+      <c r="I16" s="24" t="s">
+        <v>781</v>
+      </c>
+      <c r="J16" s="24" t="s">
         <v>782</v>
-      </c>
-      <c r="H16" s="24" t="s">
-        <v>783</v>
-      </c>
-      <c r="I16" s="24" t="s">
-        <v>784</v>
-      </c>
-      <c r="J16" s="24" t="s">
-        <v>785</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="30">
       <c r="A17" s="47" t="s">
-        <v>1258</v>
+        <v>1254</v>
       </c>
       <c r="B17" s="19" t="s">
         <v>174</v>
@@ -6498,21 +6626,21 @@
         <v>177</v>
       </c>
       <c r="G17" s="23" t="s">
+        <v>783</v>
+      </c>
+      <c r="H17" s="24" t="s">
+        <v>784</v>
+      </c>
+      <c r="I17" s="24" t="s">
+        <v>785</v>
+      </c>
+      <c r="J17" s="24" t="s">
         <v>786</v>
-      </c>
-      <c r="H17" s="24" t="s">
-        <v>787</v>
-      </c>
-      <c r="I17" s="24" t="s">
-        <v>788</v>
-      </c>
-      <c r="J17" s="24" t="s">
-        <v>789</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="30">
       <c r="A18" s="47" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>178</v>
@@ -6528,21 +6656,21 @@
         <v>181</v>
       </c>
       <c r="G18" s="38" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="H18" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="I18" s="24" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="J18" s="24" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="30">
       <c r="A19" s="47" t="s">
-        <v>1260</v>
+        <v>1256</v>
       </c>
       <c r="B19" s="19" t="s">
         <v>190</v>
@@ -6558,21 +6686,21 @@
         <v>193</v>
       </c>
       <c r="G19" s="23" t="s">
+        <v>797</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="I19" s="24" t="s">
+        <v>799</v>
+      </c>
+      <c r="J19" s="24" t="s">
         <v>800</v>
-      </c>
-      <c r="H19" s="24" t="s">
-        <v>801</v>
-      </c>
-      <c r="I19" s="24" t="s">
-        <v>802</v>
-      </c>
-      <c r="J19" s="24" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="30">
       <c r="A20" s="47" t="s">
-        <v>1261</v>
+        <v>1257</v>
       </c>
       <c r="B20" s="19" t="s">
         <v>194</v>
@@ -6588,21 +6716,21 @@
         <v>197</v>
       </c>
       <c r="G20" s="23" t="s">
+        <v>801</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>802</v>
+      </c>
+      <c r="I20" s="24" t="s">
+        <v>803</v>
+      </c>
+      <c r="J20" s="24" t="s">
         <v>804</v>
-      </c>
-      <c r="H20" s="24" t="s">
-        <v>805</v>
-      </c>
-      <c r="I20" s="24" t="s">
-        <v>806</v>
-      </c>
-      <c r="J20" s="24" t="s">
-        <v>807</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="4" customFormat="1" ht="30">
       <c r="A21" s="47" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="B21" s="19" t="s">
         <v>198</v>
@@ -6618,21 +6746,21 @@
         <v>201</v>
       </c>
       <c r="G21" s="23" t="s">
+        <v>805</v>
+      </c>
+      <c r="H21" s="44" t="s">
+        <v>806</v>
+      </c>
+      <c r="I21" s="24" t="s">
+        <v>807</v>
+      </c>
+      <c r="J21" s="24" t="s">
         <v>808</v>
-      </c>
-      <c r="H21" s="44" t="s">
-        <v>809</v>
-      </c>
-      <c r="I21" s="24" t="s">
-        <v>810</v>
-      </c>
-      <c r="J21" s="24" t="s">
-        <v>811</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="4" customFormat="1">
       <c r="A22" s="47" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="B22" s="19" t="s">
         <v>210</v>
@@ -6648,21 +6776,21 @@
         <v>213</v>
       </c>
       <c r="G22" s="23" t="s">
+        <v>814</v>
+      </c>
+      <c r="H22" s="44" t="s">
+        <v>815</v>
+      </c>
+      <c r="I22" s="24" t="s">
+        <v>816</v>
+      </c>
+      <c r="J22" s="24" t="s">
         <v>817</v>
-      </c>
-      <c r="H22" s="44" t="s">
-        <v>818</v>
-      </c>
-      <c r="I22" s="24" t="s">
-        <v>819</v>
-      </c>
-      <c r="J22" s="24" t="s">
-        <v>820</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="30">
       <c r="A23" s="47" t="s">
-        <v>1264</v>
+        <v>1260</v>
       </c>
       <c r="B23" s="19" t="s">
         <v>214</v>
@@ -6678,21 +6806,21 @@
         <v>217</v>
       </c>
       <c r="G23" s="23" t="s">
+        <v>818</v>
+      </c>
+      <c r="H23" s="24" t="s">
+        <v>819</v>
+      </c>
+      <c r="I23" s="24" t="s">
+        <v>820</v>
+      </c>
+      <c r="J23" s="24" t="s">
         <v>821</v>
-      </c>
-      <c r="H23" s="24" t="s">
-        <v>822</v>
-      </c>
-      <c r="I23" s="24" t="s">
-        <v>823</v>
-      </c>
-      <c r="J23" s="24" t="s">
-        <v>824</v>
       </c>
     </row>
     <row r="24" spans="1:10" s="4" customFormat="1" ht="30">
       <c r="A24" s="47" t="s">
-        <v>1265</v>
+        <v>1261</v>
       </c>
       <c r="B24" s="19" t="s">
         <v>218</v>
@@ -6708,21 +6836,21 @@
         <v>221</v>
       </c>
       <c r="G24" s="23" t="s">
+        <v>822</v>
+      </c>
+      <c r="H24" s="44" t="s">
+        <v>823</v>
+      </c>
+      <c r="I24" s="24" t="s">
+        <v>824</v>
+      </c>
+      <c r="J24" s="24" t="s">
         <v>825</v>
-      </c>
-      <c r="H24" s="44" t="s">
-        <v>826</v>
-      </c>
-      <c r="I24" s="24" t="s">
-        <v>827</v>
-      </c>
-      <c r="J24" s="24" t="s">
-        <v>828</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="30">
       <c r="A25" s="47" t="s">
-        <v>1266</v>
+        <v>1262</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>222</v>
@@ -6738,21 +6866,21 @@
         <v>225</v>
       </c>
       <c r="G25" s="38" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="H25" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="I25" s="24" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="J25" s="24" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
     </row>
     <row r="26" spans="1:10" s="4" customFormat="1" ht="30">
       <c r="A26" s="47" t="s">
-        <v>1267</v>
+        <v>1263</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>226</v>
@@ -6768,21 +6896,21 @@
         <v>229</v>
       </c>
       <c r="G26" s="38" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="H26" s="45" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="I26" s="24" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="J26" s="24" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
     </row>
     <row r="27" spans="1:10" s="4" customFormat="1" ht="30">
       <c r="A27" s="47" t="s">
-        <v>1268</v>
+        <v>1264</v>
       </c>
       <c r="B27" s="19" t="s">
         <v>230</v>
@@ -6798,21 +6926,21 @@
         <v>233</v>
       </c>
       <c r="G27" s="23" t="s">
+        <v>832</v>
+      </c>
+      <c r="H27" s="44" t="s">
+        <v>833</v>
+      </c>
+      <c r="I27" s="24" t="s">
+        <v>834</v>
+      </c>
+      <c r="J27" s="24" t="s">
         <v>835</v>
-      </c>
-      <c r="H27" s="44" t="s">
-        <v>836</v>
-      </c>
-      <c r="I27" s="24" t="s">
-        <v>837</v>
-      </c>
-      <c r="J27" s="24" t="s">
-        <v>838</v>
       </c>
     </row>
     <row r="28" spans="1:10" customFormat="1">
       <c r="A28" s="47" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>234</v>
@@ -6828,21 +6956,21 @@
         <v>237</v>
       </c>
       <c r="G28" s="38" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="H28" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="I28" s="24" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="J28" s="24" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="47" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="B29" s="19" t="s">
         <v>238</v>
@@ -6858,21 +6986,21 @@
         <v>241</v>
       </c>
       <c r="G29" s="23" t="s">
+        <v>839</v>
+      </c>
+      <c r="H29" s="24" t="s">
+        <v>840</v>
+      </c>
+      <c r="I29" s="24" t="s">
+        <v>841</v>
+      </c>
+      <c r="J29" s="24" t="s">
         <v>842</v>
-      </c>
-      <c r="H29" s="24" t="s">
-        <v>843</v>
-      </c>
-      <c r="I29" s="24" t="s">
-        <v>844</v>
-      </c>
-      <c r="J29" s="24" t="s">
-        <v>845</v>
       </c>
     </row>
     <row r="30" spans="1:10" s="4" customFormat="1">
       <c r="A30" s="47" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>242</v>
@@ -6888,21 +7016,21 @@
         <v>245</v>
       </c>
       <c r="G30" s="38" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="H30" s="45" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="I30" s="24" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="J30" s="24" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
     </row>
     <row r="31" spans="1:10" s="4" customFormat="1">
       <c r="A31" s="47" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="B31" s="19" t="s">
         <v>250</v>
@@ -6918,21 +7046,21 @@
         <v>253</v>
       </c>
       <c r="G31" s="23" t="s">
+        <v>848</v>
+      </c>
+      <c r="H31" s="44" t="s">
+        <v>849</v>
+      </c>
+      <c r="I31" s="24" t="s">
+        <v>850</v>
+      </c>
+      <c r="J31" s="24" t="s">
         <v>851</v>
-      </c>
-      <c r="H31" s="44" t="s">
-        <v>852</v>
-      </c>
-      <c r="I31" s="24" t="s">
-        <v>853</v>
-      </c>
-      <c r="J31" s="24" t="s">
-        <v>854</v>
       </c>
     </row>
     <row r="32" spans="1:10" s="4" customFormat="1" ht="30">
       <c r="A32" s="47" t="s">
-        <v>1265</v>
+        <v>1261</v>
       </c>
       <c r="B32" s="19" t="s">
         <v>254</v>
@@ -6948,21 +7076,21 @@
         <v>257</v>
       </c>
       <c r="G32" s="23" t="s">
+        <v>822</v>
+      </c>
+      <c r="H32" s="44" t="s">
+        <v>823</v>
+      </c>
+      <c r="I32" s="24" t="s">
+        <v>824</v>
+      </c>
+      <c r="J32" s="24" t="s">
         <v>825</v>
-      </c>
-      <c r="H32" s="44" t="s">
-        <v>826</v>
-      </c>
-      <c r="I32" s="24" t="s">
-        <v>827</v>
-      </c>
-      <c r="J32" s="24" t="s">
-        <v>828</v>
       </c>
     </row>
     <row r="33" spans="1:10" s="4" customFormat="1">
       <c r="A33" s="47" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>258</v>
@@ -6978,21 +7106,21 @@
         <v>261</v>
       </c>
       <c r="G33" s="38" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="H33" s="45" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="I33" s="24" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="J33" s="24" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
     </row>
     <row r="34" spans="1:10" s="4" customFormat="1">
       <c r="A34" s="47" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>262</v>
@@ -7014,15 +7142,15 @@
         <v>262</v>
       </c>
       <c r="I34" s="24" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="J34" s="24" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
     </row>
     <row r="35" spans="1:10" s="4" customFormat="1">
       <c r="A35" s="47" t="s">
-        <v>1274</v>
+        <v>1270</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>266</v>
@@ -7038,21 +7166,21 @@
         <v>269</v>
       </c>
       <c r="G35" s="38" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="H35" s="45" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="I35" s="24" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="J35" s="24" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="36" spans="1:10" s="4" customFormat="1">
       <c r="A36" s="47" t="s">
-        <v>1275</v>
+        <v>1271</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>270</v>
@@ -7068,21 +7196,21 @@
         <v>273</v>
       </c>
       <c r="G36" s="38" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="H36" s="45" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="I36" s="24" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="J36" s="24" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
     </row>
     <row r="37" spans="1:10" s="4" customFormat="1">
       <c r="A37" s="47" t="s">
-        <v>1276</v>
+        <v>1272</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>274</v>
@@ -7098,21 +7226,21 @@
         <v>277</v>
       </c>
       <c r="G37" s="38" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="H37" s="45" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="I37" s="24" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="J37" s="24" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
     </row>
     <row r="38" spans="1:10" s="4" customFormat="1">
       <c r="A38" s="47" t="s">
-        <v>1277</v>
+        <v>1273</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>278</v>
@@ -7128,21 +7256,21 @@
         <v>281</v>
       </c>
       <c r="G38" s="38" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="H38" s="45" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="I38" s="24" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="J38" s="24" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
     </row>
     <row r="39" spans="1:10" customFormat="1">
       <c r="A39" s="47" t="s">
-        <v>1278</v>
+        <v>1274</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>282</v>
@@ -7158,21 +7286,21 @@
         <v>285</v>
       </c>
       <c r="G39" s="38" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="H39" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="I39" s="24" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="J39" s="24" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
     </row>
     <row r="40" spans="1:10" customFormat="1">
       <c r="A40" s="47" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>286</v>
@@ -7188,21 +7316,21 @@
         <v>289</v>
       </c>
       <c r="G40" s="38" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="H40" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="I40" s="24" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="J40" s="24" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
     </row>
     <row r="41" spans="1:10" customFormat="1">
       <c r="A41" s="47" t="s">
-        <v>1280</v>
+        <v>1276</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>290</v>
@@ -7218,21 +7346,21 @@
         <v>293</v>
       </c>
       <c r="G41" s="38" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="H41" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="I41" s="24" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="J41" s="24" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
     </row>
     <row r="42" spans="1:10" customFormat="1" ht="30">
       <c r="A42" s="47" t="s">
-        <v>1281</v>
+        <v>1277</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>294</v>
@@ -7248,21 +7376,21 @@
         <v>297</v>
       </c>
       <c r="G42" s="38" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="H42" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="I42" s="24" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="J42" s="24" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
     </row>
     <row r="43" spans="1:10" customFormat="1" ht="30">
       <c r="A43" s="47" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>298</v>
@@ -7278,21 +7406,21 @@
         <v>301</v>
       </c>
       <c r="G43" s="38" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="H43" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="I43" s="24" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="J43" s="24" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="30">
       <c r="A44" s="47" t="s">
-        <v>1283</v>
+        <v>1279</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>302</v>
@@ -7308,21 +7436,21 @@
         <v>305</v>
       </c>
       <c r="G44" s="38" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="H44" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="I44" s="24" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="J44" s="24" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="30">
       <c r="A45" s="47" t="s">
-        <v>1284</v>
+        <v>1280</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>306</v>
@@ -7338,21 +7466,21 @@
         <v>309</v>
       </c>
       <c r="G45" s="38" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="H45" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="I45" s="24" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="J45" s="24" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="30">
       <c r="A46" s="47" t="s">
-        <v>1285</v>
+        <v>1281</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>310</v>
@@ -7368,21 +7496,21 @@
         <v>313</v>
       </c>
       <c r="G46" s="38" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="H46" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="I46" s="24" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="J46" s="24" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="30">
       <c r="A47" s="47" t="s">
-        <v>1286</v>
+        <v>1282</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>314</v>
@@ -7398,21 +7526,21 @@
         <v>317</v>
       </c>
       <c r="G47" s="38" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="H47" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="I47" s="24" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="J47" s="24" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="30">
       <c r="A48" s="47" t="s">
-        <v>1287</v>
+        <v>1283</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>318</v>
@@ -7428,21 +7556,21 @@
         <v>321</v>
       </c>
       <c r="G48" s="38" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="H48" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="I48" s="24" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="J48" s="24" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
     </row>
     <row r="49" spans="1:10" customFormat="1">
       <c r="A49" s="47" t="s">
-        <v>1288</v>
+        <v>1284</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>322</v>
@@ -7458,21 +7586,21 @@
         <v>325</v>
       </c>
       <c r="G49" s="38" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="H49" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="I49" s="24" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="J49" s="24" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
     </row>
     <row r="50" spans="1:10" customFormat="1">
       <c r="A50" s="47" t="s">
-        <v>1289</v>
+        <v>1285</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>326</v>
@@ -7488,21 +7616,21 @@
         <v>329</v>
       </c>
       <c r="G50" s="38" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="H50" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="I50" s="24" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="J50" s="24" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="47" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>330</v>
@@ -7524,15 +7652,15 @@
         <v>330</v>
       </c>
       <c r="I51" s="24" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="J51" s="24" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="30">
       <c r="A52" s="47" t="s">
-        <v>1291</v>
+        <v>1287</v>
       </c>
       <c r="B52" s="19" t="s">
         <v>334</v>
@@ -7548,21 +7676,21 @@
         <v>337</v>
       </c>
       <c r="G52" s="23" t="s">
+        <v>904</v>
+      </c>
+      <c r="H52" s="24" t="s">
+        <v>905</v>
+      </c>
+      <c r="I52" s="24" t="s">
+        <v>906</v>
+      </c>
+      <c r="J52" s="24" t="s">
         <v>907</v>
-      </c>
-      <c r="H52" s="24" t="s">
-        <v>908</v>
-      </c>
-      <c r="I52" s="24" t="s">
-        <v>909</v>
-      </c>
-      <c r="J52" s="24" t="s">
-        <v>910</v>
       </c>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="47" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
       <c r="B53" s="19" t="s">
         <v>338</v>
@@ -7578,21 +7706,21 @@
         <v>341</v>
       </c>
       <c r="G53" s="23" t="s">
+        <v>908</v>
+      </c>
+      <c r="H53" s="24" t="s">
+        <v>909</v>
+      </c>
+      <c r="I53" s="24" t="s">
+        <v>910</v>
+      </c>
+      <c r="J53" s="24" t="s">
         <v>911</v>
-      </c>
-      <c r="H53" s="24" t="s">
-        <v>912</v>
-      </c>
-      <c r="I53" s="24" t="s">
-        <v>913</v>
-      </c>
-      <c r="J53" s="24" t="s">
-        <v>914</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="30">
       <c r="A54" s="47" t="s">
-        <v>1293</v>
+        <v>1289</v>
       </c>
       <c r="B54" s="19" t="s">
         <v>342</v>
@@ -7608,21 +7736,21 @@
         <v>345</v>
       </c>
       <c r="G54" s="23" t="s">
+        <v>912</v>
+      </c>
+      <c r="H54" s="24" t="s">
+        <v>913</v>
+      </c>
+      <c r="I54" s="24" t="s">
+        <v>914</v>
+      </c>
+      <c r="J54" s="24" t="s">
         <v>915</v>
-      </c>
-      <c r="H54" s="24" t="s">
-        <v>916</v>
-      </c>
-      <c r="I54" s="24" t="s">
-        <v>917</v>
-      </c>
-      <c r="J54" s="24" t="s">
-        <v>918</v>
       </c>
     </row>
     <row r="55" spans="1:10" customFormat="1" ht="30">
       <c r="A55" s="47" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="B55" s="19" t="s">
         <v>346</v>
@@ -7638,22 +7766,22 @@
         <v>349</v>
       </c>
       <c r="G55" s="23" t="s">
+        <v>916</v>
+      </c>
+      <c r="H55" s="24" t="s">
+        <v>917</v>
+      </c>
+      <c r="I55" s="24" t="s">
+        <v>918</v>
+      </c>
+      <c r="J55" s="24" t="s">
         <v>919</v>
-      </c>
-      <c r="H55" s="24" t="s">
-        <v>920</v>
-      </c>
-      <c r="I55" s="24" t="s">
-        <v>921</v>
-      </c>
-      <c r="J55" s="24" t="s">
-        <v>922</v>
       </c>
     </row>
     <row r="56" spans="1:10" customFormat="1">
       <c r="A56" s="47"/>
       <c r="B56" s="5" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="C56" s="40"/>
       <c r="D56" s="8" t="s">
@@ -7666,17 +7794,17 @@
         <v>17</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="H56" s="43" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="I56" s="24"/>
       <c r="J56" s="24"/>
     </row>
     <row r="57" spans="1:10" ht="30">
       <c r="A57" s="47" t="s">
-        <v>1295</v>
+        <v>1291</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>352</v>
@@ -7692,21 +7820,21 @@
         <v>355</v>
       </c>
       <c r="G57" s="38" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="H57" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="I57" s="24" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="J57" s="24" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="30">
       <c r="A58" s="47" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>356</v>
@@ -7722,21 +7850,21 @@
         <v>359</v>
       </c>
       <c r="G58" s="38" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="H58" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="I58" s="24" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="J58" s="24" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="47" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="B59" s="19" t="s">
         <v>360</v>
@@ -7752,21 +7880,21 @@
         <v>363</v>
       </c>
       <c r="G59" s="23" t="s">
+        <v>926</v>
+      </c>
+      <c r="H59" s="24" t="s">
+        <v>927</v>
+      </c>
+      <c r="I59" s="24" t="s">
+        <v>928</v>
+      </c>
+      <c r="J59" s="24" t="s">
         <v>929</v>
-      </c>
-      <c r="H59" s="24" t="s">
-        <v>930</v>
-      </c>
-      <c r="I59" s="24" t="s">
-        <v>931</v>
-      </c>
-      <c r="J59" s="24" t="s">
-        <v>932</v>
       </c>
     </row>
     <row r="60" spans="1:10" customFormat="1">
       <c r="A60" s="47" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="B60" s="19" t="s">
         <v>364</v>
@@ -7782,21 +7910,21 @@
         <v>367</v>
       </c>
       <c r="G60" s="23" t="s">
+        <v>930</v>
+      </c>
+      <c r="H60" s="24" t="s">
+        <v>931</v>
+      </c>
+      <c r="I60" s="24" t="s">
+        <v>932</v>
+      </c>
+      <c r="J60" s="24" t="s">
         <v>933</v>
-      </c>
-      <c r="H60" s="24" t="s">
-        <v>934</v>
-      </c>
-      <c r="I60" s="24" t="s">
-        <v>935</v>
-      </c>
-      <c r="J60" s="24" t="s">
-        <v>936</v>
       </c>
     </row>
     <row r="61" spans="1:10" customFormat="1">
       <c r="A61" s="47" t="s">
-        <v>1299</v>
+        <v>1295</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>372</v>
@@ -7812,21 +7940,21 @@
         <v>375</v>
       </c>
       <c r="G61" s="38" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="H61" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="I61" s="24" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="J61" s="24" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
     </row>
     <row r="62" spans="1:10">
       <c r="A62" s="47" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="B62" s="19" t="s">
         <v>376</v>
@@ -7842,21 +7970,21 @@
         <v>379</v>
       </c>
       <c r="G62" s="23" t="s">
+        <v>839</v>
+      </c>
+      <c r="H62" s="24" t="s">
+        <v>840</v>
+      </c>
+      <c r="I62" s="24" t="s">
+        <v>841</v>
+      </c>
+      <c r="J62" s="24" t="s">
         <v>842</v>
-      </c>
-      <c r="H62" s="24" t="s">
-        <v>843</v>
-      </c>
-      <c r="I62" s="24" t="s">
-        <v>844</v>
-      </c>
-      <c r="J62" s="24" t="s">
-        <v>845</v>
       </c>
     </row>
     <row r="63" spans="1:10" customFormat="1">
       <c r="A63" s="47" t="s">
-        <v>1300</v>
+        <v>1296</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>380</v>
@@ -7872,21 +8000,21 @@
         <v>383</v>
       </c>
       <c r="G63" s="38" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="H63" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="I63" s="24" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J63" s="24" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="30">
       <c r="A64" s="47" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
       <c r="B64" s="19" t="s">
         <v>37</v>
@@ -7902,22 +8030,22 @@
         <v>40</v>
       </c>
       <c r="G64" s="23" t="s">
+        <v>699</v>
+      </c>
+      <c r="H64" s="24" t="s">
+        <v>700</v>
+      </c>
+      <c r="I64" s="24" t="s">
+        <v>701</v>
+      </c>
+      <c r="J64" s="24" t="s">
         <v>702</v>
-      </c>
-      <c r="H64" s="24" t="s">
-        <v>703</v>
-      </c>
-      <c r="I64" s="24" t="s">
-        <v>704</v>
-      </c>
-      <c r="J64" s="24" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="65" spans="1:10" customFormat="1">
       <c r="A65" s="47"/>
       <c r="B65" s="5" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="C65" s="8"/>
       <c r="D65" s="8" t="s">
@@ -7930,17 +8058,17 @@
         <v>0</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="H65" s="43" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="I65" s="24"/>
       <c r="J65" s="24"/>
     </row>
     <row r="66" spans="1:10" customFormat="1">
       <c r="A66" s="47" t="s">
-        <v>1342</v>
+        <v>1331</v>
       </c>
       <c r="B66" s="5" t="s">
         <v>59</v>
@@ -7962,15 +8090,15 @@
         <v>59</v>
       </c>
       <c r="I66" s="24" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="J66" s="24" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
     </row>
     <row r="67" spans="1:10">
       <c r="B67" s="5" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="7" t="s">
@@ -7983,18 +8111,18 @@
         <v>1</v>
       </c>
       <c r="G67" s="39" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="H67" s="46" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="30">
       <c r="A68" s="47" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7" t="s">
@@ -8007,16 +8135,16 @@
         <v>2</v>
       </c>
       <c r="G68" s="39" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="H68" s="46" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="69" spans="1:10" customFormat="1" ht="30">
       <c r="A69" s="47"/>
       <c r="B69" s="5" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
       <c r="C69" s="8"/>
       <c r="D69" s="8" t="s">
@@ -8029,16 +8157,18 @@
         <v>3</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
       <c r="H69" s="43" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
       <c r="I69" s="24"/>
       <c r="J69" s="24"/>
     </row>
-    <row r="70" spans="1:10" customFormat="1">
-      <c r="A70" s="47"/>
+    <row r="70" spans="1:10" customFormat="1" ht="30">
+      <c r="A70" s="52" t="s">
+        <v>1367</v>
+      </c>
       <c r="B70" s="19" t="s">
         <v>73</v>
       </c>
@@ -8053,16 +8183,16 @@
         <v>76</v>
       </c>
       <c r="G70" s="23" t="s">
+        <v>718</v>
+      </c>
+      <c r="H70" s="24" t="s">
+        <v>719</v>
+      </c>
+      <c r="I70" s="24" t="s">
+        <v>720</v>
+      </c>
+      <c r="J70" s="24" t="s">
         <v>721</v>
-      </c>
-      <c r="H70" s="24" t="s">
-        <v>722</v>
-      </c>
-      <c r="I70" s="24" t="s">
-        <v>723</v>
-      </c>
-      <c r="J70" s="24" t="s">
-        <v>724</v>
       </c>
     </row>
     <row r="71" spans="1:10" customFormat="1">
@@ -8081,16 +8211,16 @@
         <v>80</v>
       </c>
       <c r="G71" s="23" t="s">
+        <v>722</v>
+      </c>
+      <c r="H71" s="24" t="s">
+        <v>723</v>
+      </c>
+      <c r="I71" s="24" t="s">
+        <v>724</v>
+      </c>
+      <c r="J71" s="24" t="s">
         <v>725</v>
-      </c>
-      <c r="H71" s="24" t="s">
-        <v>726</v>
-      </c>
-      <c r="I71" s="24" t="s">
-        <v>727</v>
-      </c>
-      <c r="J71" s="24" t="s">
-        <v>728</v>
       </c>
     </row>
     <row r="72" spans="1:10" customFormat="1">
@@ -8109,16 +8239,16 @@
         <v>84</v>
       </c>
       <c r="G72" s="23" t="s">
+        <v>726</v>
+      </c>
+      <c r="H72" s="24" t="s">
+        <v>727</v>
+      </c>
+      <c r="I72" s="24" t="s">
+        <v>728</v>
+      </c>
+      <c r="J72" s="24" t="s">
         <v>729</v>
-      </c>
-      <c r="H72" s="24" t="s">
-        <v>730</v>
-      </c>
-      <c r="I72" s="24" t="s">
-        <v>731</v>
-      </c>
-      <c r="J72" s="24" t="s">
-        <v>732</v>
       </c>
     </row>
     <row r="73" spans="1:10" customFormat="1">
@@ -8137,16 +8267,16 @@
         <v>88</v>
       </c>
       <c r="G73" s="23" t="s">
+        <v>730</v>
+      </c>
+      <c r="H73" s="24" t="s">
+        <v>731</v>
+      </c>
+      <c r="I73" s="24" t="s">
+        <v>732</v>
+      </c>
+      <c r="J73" s="24" t="s">
         <v>733</v>
-      </c>
-      <c r="H73" s="24" t="s">
-        <v>734</v>
-      </c>
-      <c r="I73" s="24" t="s">
-        <v>735</v>
-      </c>
-      <c r="J73" s="24" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="74" spans="1:10" customFormat="1">
@@ -8165,22 +8295,22 @@
         <v>92</v>
       </c>
       <c r="G74" s="23" t="s">
+        <v>734</v>
+      </c>
+      <c r="H74" s="24" t="s">
+        <v>735</v>
+      </c>
+      <c r="I74" s="24" t="s">
+        <v>736</v>
+      </c>
+      <c r="J74" s="24" t="s">
         <v>737</v>
-      </c>
-      <c r="H74" s="24" t="s">
-        <v>738</v>
-      </c>
-      <c r="I74" s="24" t="s">
-        <v>739</v>
-      </c>
-      <c r="J74" s="24" t="s">
-        <v>740</v>
       </c>
     </row>
     <row r="75" spans="1:10" customFormat="1" ht="75">
       <c r="A75" s="47"/>
       <c r="B75" s="5" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
       <c r="C75" s="8"/>
       <c r="D75" s="8" t="s">
@@ -8193,10 +8323,10 @@
         <v>4</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
       <c r="H75" s="43" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
       <c r="I75" s="24"/>
       <c r="J75" s="24"/>
@@ -8204,7 +8334,7 @@
     <row r="76" spans="1:10" customFormat="1" ht="30">
       <c r="A76" s="47"/>
       <c r="B76" s="5" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
       <c r="C76" s="8"/>
       <c r="D76" s="8" t="s">
@@ -8217,10 +8347,10 @@
         <v>5</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
       <c r="H76" s="43" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
       <c r="I76" s="24"/>
       <c r="J76" s="24"/>
@@ -8241,22 +8371,22 @@
         <v>100</v>
       </c>
       <c r="G77" s="23" t="s">
+        <v>738</v>
+      </c>
+      <c r="H77" s="24" t="s">
+        <v>739</v>
+      </c>
+      <c r="I77" s="24" t="s">
+        <v>740</v>
+      </c>
+      <c r="J77" s="24" t="s">
         <v>741</v>
-      </c>
-      <c r="H77" s="24" t="s">
-        <v>742</v>
-      </c>
-      <c r="I77" s="24" t="s">
-        <v>743</v>
-      </c>
-      <c r="J77" s="24" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="78" spans="1:10" customFormat="1" ht="60">
       <c r="A78" s="47"/>
       <c r="B78" s="5" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="C78" s="8"/>
       <c r="D78" s="8" t="s">
@@ -8269,10 +8399,10 @@
         <v>6</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="H78" s="43" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="I78" s="24"/>
       <c r="J78" s="24"/>
@@ -8293,22 +8423,22 @@
         <v>106</v>
       </c>
       <c r="G79" s="23" t="s">
+        <v>742</v>
+      </c>
+      <c r="H79" s="24" t="s">
+        <v>743</v>
+      </c>
+      <c r="I79" s="24" t="s">
+        <v>744</v>
+      </c>
+      <c r="J79" s="24" t="s">
         <v>745</v>
-      </c>
-      <c r="H79" s="24" t="s">
-        <v>746</v>
-      </c>
-      <c r="I79" s="24" t="s">
-        <v>747</v>
-      </c>
-      <c r="J79" s="24" t="s">
-        <v>748</v>
       </c>
     </row>
     <row r="80" spans="1:10" customFormat="1" ht="30">
       <c r="A80" s="47"/>
       <c r="B80" s="5" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
       <c r="C80" s="8"/>
       <c r="D80" s="8" t="s">
@@ -8321,10 +8451,10 @@
         <v>109</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
       <c r="H80" s="43" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
       <c r="I80" s="24"/>
       <c r="J80" s="24"/>
@@ -8332,7 +8462,7 @@
     <row r="81" spans="1:10" customFormat="1" ht="30">
       <c r="A81" s="47"/>
       <c r="B81" s="5" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
       <c r="C81" s="8"/>
       <c r="D81" s="8" t="s">
@@ -8345,10 +8475,10 @@
         <v>7</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="H81" s="43" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="I81" s="24"/>
       <c r="J81" s="24"/>
@@ -8369,16 +8499,16 @@
         <v>115</v>
       </c>
       <c r="G82" s="38" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="H82" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="I82" s="24" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="J82" s="24" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
     </row>
     <row r="83" spans="1:10" customFormat="1">
@@ -8397,22 +8527,22 @@
         <v>119</v>
       </c>
       <c r="G83" s="23" t="s">
+        <v>749</v>
+      </c>
+      <c r="H83" s="24" t="s">
+        <v>750</v>
+      </c>
+      <c r="I83" s="24" t="s">
+        <v>751</v>
+      </c>
+      <c r="J83" s="24" t="s">
         <v>752</v>
-      </c>
-      <c r="H83" s="24" t="s">
-        <v>753</v>
-      </c>
-      <c r="I83" s="24" t="s">
-        <v>754</v>
-      </c>
-      <c r="J83" s="24" t="s">
-        <v>755</v>
       </c>
     </row>
     <row r="84" spans="1:10" customFormat="1" ht="30">
       <c r="A84" s="47"/>
       <c r="B84" s="5" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="C84" s="8"/>
       <c r="D84" s="8" t="s">
@@ -8425,10 +8555,10 @@
         <v>8</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="H84" s="43" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="I84" s="24"/>
       <c r="J84" s="24"/>
@@ -8436,7 +8566,7 @@
     <row r="85" spans="1:10" customFormat="1" ht="90">
       <c r="A85" s="47"/>
       <c r="B85" s="5" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="C85" s="8"/>
       <c r="D85" s="8" t="s">
@@ -8449,10 +8579,10 @@
         <v>9</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="H85" s="43" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="I85" s="24"/>
       <c r="J85" s="24"/>
@@ -8460,7 +8590,7 @@
     <row r="86" spans="1:10" customFormat="1">
       <c r="A86" s="47"/>
       <c r="B86" s="5" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="C86" s="8"/>
       <c r="D86" s="8" t="s">
@@ -8473,10 +8603,10 @@
         <v>10</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
       <c r="H86" s="43" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
       <c r="I86" s="24"/>
       <c r="J86" s="24"/>
@@ -8484,7 +8614,7 @@
     <row r="87" spans="1:10" customFormat="1" ht="45">
       <c r="A87" s="47"/>
       <c r="B87" s="5" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
       <c r="C87" s="8"/>
       <c r="D87" s="8" t="s">
@@ -8497,17 +8627,17 @@
         <v>11</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
       <c r="H87" s="43" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
       <c r="I87" s="24"/>
       <c r="J87" s="24"/>
     </row>
     <row r="88" spans="1:10" ht="30">
       <c r="B88" s="5" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
       <c r="C88" s="8"/>
       <c r="D88" s="8" t="s">
@@ -8520,15 +8650,15 @@
         <v>12</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
       <c r="H88" s="43" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="30">
       <c r="B89" s="5" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="C89" s="8"/>
       <c r="D89" s="8" t="s">
@@ -8541,15 +8671,15 @@
         <v>13</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
       <c r="H89" s="43" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="30">
       <c r="B90" s="5" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
       <c r="C90" s="8"/>
       <c r="D90" s="8" t="s">
@@ -8562,15 +8692,15 @@
         <v>14</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="H90" s="43" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="45">
       <c r="B91" s="5" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
       <c r="C91" s="8"/>
       <c r="D91" s="8" t="s">
@@ -8583,16 +8713,16 @@
         <v>15</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
       <c r="H91" s="43" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="92" spans="1:10" s="4" customFormat="1" ht="45">
       <c r="A92" s="48"/>
       <c r="B92" s="5" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="C92" s="8"/>
       <c r="D92" s="8" t="s">
@@ -8605,10 +8735,10 @@
         <v>16</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
       <c r="H92" s="35" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
       <c r="I92" s="24"/>
       <c r="J92" s="24"/>
@@ -8629,21 +8759,21 @@
         <v>149</v>
       </c>
       <c r="G93" s="38" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="H93" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="I93" s="24" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="J93" s="24" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
     </row>
     <row r="94" spans="1:10" customFormat="1">
       <c r="A94" s="47" t="s">
-        <v>1303</v>
+        <v>1299</v>
       </c>
       <c r="B94" s="5" t="s">
         <v>150</v>
@@ -8659,21 +8789,21 @@
         <v>153</v>
       </c>
       <c r="G94" s="38" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="H94" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="I94" s="24" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="J94" s="24" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
     </row>
     <row r="95" spans="1:10">
       <c r="A95" s="47" t="s">
-        <v>1304</v>
+        <v>1300</v>
       </c>
       <c r="B95" s="5" t="s">
         <v>182</v>
@@ -8689,21 +8819,21 @@
         <v>185</v>
       </c>
       <c r="G95" s="38" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="H95" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="I95" s="24" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="J95" s="24" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
     </row>
     <row r="96" spans="1:10">
       <c r="A96" s="47" t="s">
-        <v>1305</v>
+        <v>1301</v>
       </c>
       <c r="B96" s="19" t="s">
         <v>186</v>
@@ -8719,21 +8849,21 @@
         <v>189</v>
       </c>
       <c r="G96" s="23" t="s">
+        <v>793</v>
+      </c>
+      <c r="H96" s="24" t="s">
+        <v>794</v>
+      </c>
+      <c r="I96" s="24" t="s">
+        <v>795</v>
+      </c>
+      <c r="J96" s="24" t="s">
         <v>796</v>
-      </c>
-      <c r="H96" s="24" t="s">
-        <v>797</v>
-      </c>
-      <c r="I96" s="24" t="s">
-        <v>798</v>
-      </c>
-      <c r="J96" s="24" t="s">
-        <v>799</v>
       </c>
     </row>
     <row r="97" spans="1:10">
       <c r="A97" s="47" t="s">
-        <v>1306</v>
+        <v>1369</v>
       </c>
       <c r="B97" s="5" t="s">
         <v>202</v>
@@ -8755,15 +8885,15 @@
         <v>202</v>
       </c>
       <c r="I97" s="24" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="J97" s="24" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
     </row>
     <row r="98" spans="1:10" customFormat="1">
       <c r="A98" s="47" t="s">
-        <v>1307</v>
+        <v>1370</v>
       </c>
       <c r="B98" s="5" t="s">
         <v>206</v>
@@ -8779,21 +8909,21 @@
         <v>209</v>
       </c>
       <c r="G98" s="38" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="H98" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="I98" s="24" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="J98" s="24" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
     </row>
     <row r="99" spans="1:10">
       <c r="A99" s="47" t="s">
-        <v>1308</v>
+        <v>1302</v>
       </c>
       <c r="B99" s="5" t="s">
         <v>246</v>
@@ -8815,15 +8945,15 @@
         <v>246</v>
       </c>
       <c r="I99" s="24" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="J99" s="24" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
     </row>
     <row r="100" spans="1:10" customFormat="1">
       <c r="A100" s="47" t="s">
-        <v>1309</v>
+        <v>1303</v>
       </c>
       <c r="B100" s="19" t="s">
         <v>368</v>
@@ -8839,21 +8969,21 @@
         <v>371</v>
       </c>
       <c r="G100" s="23" t="s">
+        <v>934</v>
+      </c>
+      <c r="H100" s="24" t="s">
+        <v>935</v>
+      </c>
+      <c r="I100" s="24" t="s">
+        <v>936</v>
+      </c>
+      <c r="J100" s="24" t="s">
         <v>937</v>
-      </c>
-      <c r="H100" s="24" t="s">
-        <v>938</v>
-      </c>
-      <c r="I100" s="24" t="s">
-        <v>939</v>
-      </c>
-      <c r="J100" s="24" t="s">
-        <v>940</v>
       </c>
     </row>
     <row r="101" spans="1:10">
       <c r="A101" s="47" t="s">
-        <v>1310</v>
+        <v>1304</v>
       </c>
       <c r="B101" s="19" t="s">
         <v>384</v>
@@ -8869,16 +8999,16 @@
         <v>387</v>
       </c>
       <c r="G101" s="23" t="s">
+        <v>944</v>
+      </c>
+      <c r="H101" s="24" t="s">
+        <v>945</v>
+      </c>
+      <c r="I101" s="24" t="s">
+        <v>946</v>
+      </c>
+      <c r="J101" s="24" t="s">
         <v>947</v>
-      </c>
-      <c r="H101" s="24" t="s">
-        <v>948</v>
-      </c>
-      <c r="I101" s="24" t="s">
-        <v>949</v>
-      </c>
-      <c r="J101" s="24" t="s">
-        <v>950</v>
       </c>
     </row>
     <row r="102" spans="1:10" customFormat="1">
@@ -8905,73 +9035,78 @@
       <c r="I102" s="24"/>
       <c r="J102" s="24"/>
     </row>
-    <row r="103" spans="1:10" customFormat="1">
-      <c r="A103" s="47"/>
+    <row r="103" spans="1:10" customFormat="1" ht="30">
+      <c r="A103" s="52" t="s">
+        <v>1371</v>
+      </c>
       <c r="B103" s="5" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="C103" s="7"/>
       <c r="D103" s="7" t="s">
         <v>392</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>393</v>
+        <v>1372</v>
       </c>
       <c r="F103" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G103" s="5" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="H103" s="37" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="I103" s="24"/>
       <c r="J103" s="24"/>
     </row>
-    <row r="104" spans="1:10">
+    <row r="104" spans="1:10" ht="30">
+      <c r="A104" s="47" t="s">
+        <v>1358</v>
+      </c>
       <c r="B104" s="19" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C104" s="23"/>
       <c r="D104" s="23" t="s">
+        <v>394</v>
+      </c>
+      <c r="E104" s="23" t="s">
         <v>395</v>
       </c>
-      <c r="E104" s="23" t="s">
+      <c r="F104" s="23" t="s">
         <v>396</v>
       </c>
-      <c r="F104" s="23" t="s">
-        <v>397</v>
-      </c>
       <c r="G104" s="23" t="s">
+        <v>948</v>
+      </c>
+      <c r="H104" s="24" t="s">
+        <v>949</v>
+      </c>
+      <c r="I104" s="24" t="s">
+        <v>950</v>
+      </c>
+      <c r="J104" s="24" t="s">
         <v>951</v>
-      </c>
-      <c r="H104" s="24" t="s">
-        <v>952</v>
-      </c>
-      <c r="I104" s="24" t="s">
-        <v>953</v>
-      </c>
-      <c r="J104" s="24" t="s">
-        <v>954</v>
       </c>
     </row>
     <row r="105" spans="1:10" customFormat="1">
       <c r="A105" s="47" t="s">
-        <v>1302</v>
+        <v>1298</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C105" s="7"/>
       <c r="D105" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="E105" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="E105" s="7" t="s">
+      <c r="F105" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="F105" s="7" t="s">
-        <v>401</v>
       </c>
       <c r="G105" s="38" t="s">
         <v>59</v>
@@ -8980,2025 +9115,2076 @@
         <v>59</v>
       </c>
       <c r="I105" s="24" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="J105" s="24" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" customFormat="1">
-      <c r="A106" s="47"/>
+        <v>713</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" customFormat="1" ht="30">
+      <c r="A106" s="52" t="s">
+        <v>1366</v>
+      </c>
       <c r="B106" s="5" t="s">
-        <v>1233</v>
+        <v>1356</v>
       </c>
       <c r="C106" s="7"/>
       <c r="D106" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="E106" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="E106" s="7" t="s">
+      <c r="F106" s="8" t="s">
         <v>403</v>
       </c>
-      <c r="F106" s="8" t="s">
-        <v>404</v>
-      </c>
       <c r="G106" s="5" t="s">
-        <v>1234</v>
+        <v>1230</v>
       </c>
       <c r="H106" s="37" t="s">
-        <v>1234</v>
+        <v>1230</v>
       </c>
       <c r="I106" s="24"/>
       <c r="J106" s="24"/>
     </row>
-    <row r="107" spans="1:10">
+    <row r="107" spans="1:10" ht="30">
+      <c r="A107" s="47" t="s">
+        <v>1365</v>
+      </c>
       <c r="B107" s="19" t="s">
-        <v>405</v>
+        <v>1355</v>
       </c>
       <c r="C107" s="23"/>
       <c r="D107" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="E107" s="23" t="s">
+        <v>405</v>
+      </c>
+      <c r="F107" s="23" t="s">
         <v>406</v>
       </c>
-      <c r="E107" s="23" t="s">
+      <c r="G107" s="23" t="s">
+        <v>952</v>
+      </c>
+      <c r="H107" s="24" t="s">
+        <v>953</v>
+      </c>
+      <c r="I107" s="24" t="s">
+        <v>954</v>
+      </c>
+      <c r="J107" s="24" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="30">
+      <c r="A108" s="52" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B108" s="19" t="s">
         <v>407</v>
-      </c>
-      <c r="F107" s="23" t="s">
-        <v>408</v>
-      </c>
-      <c r="G107" s="23" t="s">
-        <v>955</v>
-      </c>
-      <c r="H107" s="24" t="s">
-        <v>956</v>
-      </c>
-      <c r="I107" s="24" t="s">
-        <v>957</v>
-      </c>
-      <c r="J107" s="24" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10">
-      <c r="B108" s="19" t="s">
-        <v>409</v>
       </c>
       <c r="C108" s="23"/>
       <c r="D108" s="23" t="s">
+        <v>408</v>
+      </c>
+      <c r="E108" s="23" t="s">
+        <v>409</v>
+      </c>
+      <c r="F108" s="23" t="s">
         <v>410</v>
       </c>
-      <c r="E108" s="23" t="s">
+      <c r="G108" s="23" t="s">
+        <v>956</v>
+      </c>
+      <c r="H108" s="24" t="s">
+        <v>957</v>
+      </c>
+      <c r="I108" s="24" t="s">
+        <v>958</v>
+      </c>
+      <c r="J108" s="24" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="30">
+      <c r="A109" s="52" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B109" s="19" t="s">
         <v>411</v>
-      </c>
-      <c r="F108" s="23" t="s">
-        <v>412</v>
-      </c>
-      <c r="G108" s="23" t="s">
-        <v>959</v>
-      </c>
-      <c r="H108" s="24" t="s">
-        <v>960</v>
-      </c>
-      <c r="I108" s="24" t="s">
-        <v>961</v>
-      </c>
-      <c r="J108" s="24" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10">
-      <c r="B109" s="19" t="s">
-        <v>413</v>
       </c>
       <c r="C109" s="23"/>
       <c r="D109" s="23" t="s">
+        <v>412</v>
+      </c>
+      <c r="E109" s="23" t="s">
+        <v>413</v>
+      </c>
+      <c r="F109" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="E109" s="23" t="s">
+      <c r="G109" s="23" t="s">
+        <v>960</v>
+      </c>
+      <c r="H109" s="24" t="s">
+        <v>961</v>
+      </c>
+      <c r="I109" s="24" t="s">
+        <v>962</v>
+      </c>
+      <c r="J109" s="24" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="30">
+      <c r="A110" s="52" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B110" s="19" t="s">
         <v>415</v>
-      </c>
-      <c r="F109" s="23" t="s">
-        <v>416</v>
-      </c>
-      <c r="G109" s="23" t="s">
-        <v>963</v>
-      </c>
-      <c r="H109" s="24" t="s">
-        <v>964</v>
-      </c>
-      <c r="I109" s="24" t="s">
-        <v>965</v>
-      </c>
-      <c r="J109" s="24" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10">
-      <c r="B110" s="19" t="s">
-        <v>417</v>
       </c>
       <c r="C110" s="23"/>
       <c r="D110" s="23" t="s">
+        <v>416</v>
+      </c>
+      <c r="E110" s="23" t="s">
+        <v>417</v>
+      </c>
+      <c r="F110" s="23" t="s">
         <v>418</v>
       </c>
-      <c r="E110" s="23" t="s">
+      <c r="G110" s="23" t="s">
+        <v>964</v>
+      </c>
+      <c r="H110" s="24" t="s">
+        <v>965</v>
+      </c>
+      <c r="I110" s="24" t="s">
+        <v>966</v>
+      </c>
+      <c r="J110" s="24" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" customFormat="1" ht="30">
+      <c r="A111" s="52" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B111" s="5" t="s">
         <v>419</v>
-      </c>
-      <c r="F110" s="23" t="s">
-        <v>420</v>
-      </c>
-      <c r="G110" s="23" t="s">
-        <v>967</v>
-      </c>
-      <c r="H110" s="24" t="s">
-        <v>968</v>
-      </c>
-      <c r="I110" s="24" t="s">
-        <v>969</v>
-      </c>
-      <c r="J110" s="24" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" customFormat="1">
-      <c r="A111" s="47"/>
-      <c r="B111" s="5" t="s">
-        <v>421</v>
       </c>
       <c r="C111" s="7"/>
       <c r="D111" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="E111" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="F111" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="E111" s="7" t="s">
+      <c r="G111" s="38" t="s">
+        <v>968</v>
+      </c>
+      <c r="H111" t="s">
+        <v>968</v>
+      </c>
+      <c r="I111" s="24" t="s">
+        <v>969</v>
+      </c>
+      <c r="J111" s="24" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="30">
+      <c r="A112" s="52" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B112" s="19" t="s">
         <v>423</v>
-      </c>
-      <c r="F111" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="G111" s="38" t="s">
-        <v>971</v>
-      </c>
-      <c r="H111" t="s">
-        <v>971</v>
-      </c>
-      <c r="I111" s="24" t="s">
-        <v>972</v>
-      </c>
-      <c r="J111" s="24" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10">
-      <c r="B112" s="19" t="s">
-        <v>425</v>
       </c>
       <c r="C112" s="23"/>
       <c r="D112" s="23" t="s">
+        <v>424</v>
+      </c>
+      <c r="E112" s="23" t="s">
+        <v>425</v>
+      </c>
+      <c r="F112" s="23" t="s">
         <v>426</v>
       </c>
-      <c r="E112" s="23" t="s">
+      <c r="G112" s="23" t="s">
+        <v>971</v>
+      </c>
+      <c r="H112" s="24" t="s">
+        <v>972</v>
+      </c>
+      <c r="I112" s="24" t="s">
+        <v>973</v>
+      </c>
+      <c r="J112" s="24" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" customFormat="1" ht="30">
+      <c r="A113" s="47" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B113" s="5" t="s">
         <v>427</v>
-      </c>
-      <c r="F112" s="23" t="s">
-        <v>428</v>
-      </c>
-      <c r="G112" s="23" t="s">
-        <v>974</v>
-      </c>
-      <c r="H112" s="24" t="s">
-        <v>975</v>
-      </c>
-      <c r="I112" s="24" t="s">
-        <v>976</v>
-      </c>
-      <c r="J112" s="24" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" customFormat="1">
-      <c r="A113" s="47"/>
-      <c r="B113" s="5" t="s">
-        <v>429</v>
       </c>
       <c r="C113" s="7"/>
       <c r="D113" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="E113" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="F113" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="E113" s="7" t="s">
+      <c r="G113" s="38" t="s">
+        <v>975</v>
+      </c>
+      <c r="H113" t="s">
+        <v>975</v>
+      </c>
+      <c r="I113" s="24" t="s">
+        <v>976</v>
+      </c>
+      <c r="J113" s="24" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="30">
+      <c r="A114" s="52" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B114" s="19" t="s">
         <v>431</v>
-      </c>
-      <c r="F113" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="G113" s="38" t="s">
-        <v>978</v>
-      </c>
-      <c r="H113" t="s">
-        <v>978</v>
-      </c>
-      <c r="I113" s="24" t="s">
-        <v>979</v>
-      </c>
-      <c r="J113" s="24" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10">
-      <c r="B114" s="19" t="s">
-        <v>433</v>
       </c>
       <c r="C114" s="23"/>
       <c r="D114" s="23" t="s">
+        <v>432</v>
+      </c>
+      <c r="E114" s="23" t="s">
+        <v>433</v>
+      </c>
+      <c r="F114" s="23" t="s">
         <v>434</v>
       </c>
-      <c r="E114" s="23" t="s">
+      <c r="G114" s="23" t="s">
+        <v>978</v>
+      </c>
+      <c r="H114" s="24" t="s">
+        <v>979</v>
+      </c>
+      <c r="I114" s="24" t="s">
+        <v>980</v>
+      </c>
+      <c r="J114" s="24" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" customFormat="1" ht="30">
+      <c r="A115" s="52" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B115" s="5" t="s">
         <v>435</v>
-      </c>
-      <c r="F114" s="23" t="s">
-        <v>436</v>
-      </c>
-      <c r="G114" s="23" t="s">
-        <v>981</v>
-      </c>
-      <c r="H114" s="24" t="s">
-        <v>982</v>
-      </c>
-      <c r="I114" s="24" t="s">
-        <v>983</v>
-      </c>
-      <c r="J114" s="24" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" customFormat="1">
-      <c r="A115" s="47"/>
-      <c r="B115" s="5" t="s">
-        <v>437</v>
       </c>
       <c r="C115" s="7"/>
       <c r="D115" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="E115" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="F115" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="E115" s="7" t="s">
+      <c r="G115" s="38" t="s">
+        <v>982</v>
+      </c>
+      <c r="H115" t="s">
+        <v>982</v>
+      </c>
+      <c r="I115" s="24" t="s">
+        <v>983</v>
+      </c>
+      <c r="J115" s="24" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" ht="30">
+      <c r="A116" s="52" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B116" s="19" t="s">
         <v>439</v>
-      </c>
-      <c r="F115" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="G115" s="38" t="s">
-        <v>985</v>
-      </c>
-      <c r="H115" t="s">
-        <v>985</v>
-      </c>
-      <c r="I115" s="24" t="s">
-        <v>986</v>
-      </c>
-      <c r="J115" s="24" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10">
-      <c r="B116" s="19" t="s">
-        <v>441</v>
       </c>
       <c r="C116" s="23"/>
       <c r="D116" s="23" t="s">
+        <v>440</v>
+      </c>
+      <c r="E116" s="23" t="s">
+        <v>441</v>
+      </c>
+      <c r="F116" s="23" t="s">
         <v>442</v>
       </c>
-      <c r="E116" s="23" t="s">
+      <c r="G116" s="23" t="s">
+        <v>985</v>
+      </c>
+      <c r="H116" s="24" t="s">
+        <v>986</v>
+      </c>
+      <c r="I116" s="24" t="s">
+        <v>987</v>
+      </c>
+      <c r="J116" s="24" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" customFormat="1" ht="30">
+      <c r="A117" s="52" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B117" s="5" t="s">
         <v>443</v>
-      </c>
-      <c r="F116" s="23" t="s">
-        <v>444</v>
-      </c>
-      <c r="G116" s="23" t="s">
-        <v>988</v>
-      </c>
-      <c r="H116" s="24" t="s">
-        <v>989</v>
-      </c>
-      <c r="I116" s="24" t="s">
-        <v>990</v>
-      </c>
-      <c r="J116" s="24" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" customFormat="1" ht="30">
-      <c r="A117" s="47"/>
-      <c r="B117" s="5" t="s">
-        <v>445</v>
       </c>
       <c r="C117" s="7"/>
       <c r="D117" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="E117" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="F117" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="E117" s="7" t="s">
+      <c r="G117" s="38" t="s">
+        <v>989</v>
+      </c>
+      <c r="H117" t="s">
+        <v>989</v>
+      </c>
+      <c r="I117" s="24" t="s">
+        <v>990</v>
+      </c>
+      <c r="J117" s="24" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" ht="30">
+      <c r="A118" s="52" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B118" s="19" t="s">
         <v>447</v>
-      </c>
-      <c r="F117" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="G117" s="38" t="s">
-        <v>992</v>
-      </c>
-      <c r="H117" t="s">
-        <v>992</v>
-      </c>
-      <c r="I117" s="24" t="s">
-        <v>993</v>
-      </c>
-      <c r="J117" s="24" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10">
-      <c r="B118" s="19" t="s">
-        <v>449</v>
       </c>
       <c r="C118" s="23"/>
       <c r="D118" s="23" t="s">
+        <v>448</v>
+      </c>
+      <c r="E118" s="23" t="s">
+        <v>449</v>
+      </c>
+      <c r="F118" s="23" t="s">
         <v>450</v>
       </c>
-      <c r="E118" s="23" t="s">
+      <c r="G118" s="23" t="s">
+        <v>992</v>
+      </c>
+      <c r="H118" s="24" t="s">
+        <v>993</v>
+      </c>
+      <c r="I118" s="24" t="s">
+        <v>994</v>
+      </c>
+      <c r="J118" s="24" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" ht="30">
+      <c r="A119" s="52" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B119" s="19" t="s">
         <v>451</v>
-      </c>
-      <c r="F118" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="G118" s="23" t="s">
-        <v>995</v>
-      </c>
-      <c r="H118" s="24" t="s">
-        <v>996</v>
-      </c>
-      <c r="I118" s="24" t="s">
-        <v>997</v>
-      </c>
-      <c r="J118" s="24" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10">
-      <c r="B119" s="19" t="s">
-        <v>453</v>
       </c>
       <c r="C119" s="23"/>
       <c r="D119" s="23" t="s">
+        <v>452</v>
+      </c>
+      <c r="E119" s="23" t="s">
+        <v>453</v>
+      </c>
+      <c r="F119" s="23" t="s">
         <v>454</v>
       </c>
-      <c r="E119" s="23" t="s">
+      <c r="G119" s="23" t="s">
+        <v>996</v>
+      </c>
+      <c r="H119" s="24" t="s">
+        <v>997</v>
+      </c>
+      <c r="I119" s="24" t="s">
+        <v>998</v>
+      </c>
+      <c r="J119" s="24" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" customFormat="1" ht="45">
+      <c r="A120" s="52" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B120" s="5" t="s">
         <v>455</v>
-      </c>
-      <c r="F119" s="23" t="s">
-        <v>456</v>
-      </c>
-      <c r="G119" s="23" t="s">
-        <v>999</v>
-      </c>
-      <c r="H119" s="24" t="s">
-        <v>1000</v>
-      </c>
-      <c r="I119" s="24" t="s">
-        <v>1001</v>
-      </c>
-      <c r="J119" s="24" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" customFormat="1" ht="45">
-      <c r="A120" s="47"/>
-      <c r="B120" s="5" t="s">
-        <v>457</v>
       </c>
       <c r="C120" s="7"/>
       <c r="D120" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="E120" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="F120" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="E120" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="F120" s="7" t="s">
-        <v>460</v>
-      </c>
       <c r="G120" s="38" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="H120" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="I120" s="24" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="J120" s="24" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="121" spans="1:10" ht="30">
       <c r="A121" s="47" t="s">
-        <v>1311</v>
+        <v>1305</v>
       </c>
       <c r="B121" s="19" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C121" s="23"/>
       <c r="D121" s="23" t="s">
+        <v>460</v>
+      </c>
+      <c r="E121" s="23" t="s">
+        <v>461</v>
+      </c>
+      <c r="F121" s="23" t="s">
         <v>462</v>
       </c>
-      <c r="E121" s="23" t="s">
-        <v>463</v>
-      </c>
-      <c r="F121" s="23" t="s">
-        <v>464</v>
-      </c>
       <c r="G121" s="23" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H121" s="24" t="s">
+        <v>1004</v>
+      </c>
+      <c r="I121" s="24" t="s">
+        <v>1005</v>
+      </c>
+      <c r="J121" s="24" t="s">
         <v>1006</v>
-      </c>
-      <c r="H121" s="24" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I121" s="24" t="s">
-        <v>1008</v>
-      </c>
-      <c r="J121" s="24" t="s">
-        <v>1009</v>
       </c>
     </row>
     <row r="122" spans="1:10" ht="30">
       <c r="A122" s="47" t="s">
-        <v>1312</v>
+        <v>1306</v>
       </c>
       <c r="B122" s="19" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C122" s="23"/>
       <c r="D122" s="23" t="s">
+        <v>464</v>
+      </c>
+      <c r="E122" s="23" t="s">
+        <v>465</v>
+      </c>
+      <c r="F122" s="23" t="s">
         <v>466</v>
       </c>
-      <c r="E122" s="23" t="s">
-        <v>467</v>
-      </c>
-      <c r="F122" s="23" t="s">
-        <v>468</v>
-      </c>
       <c r="G122" s="23" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H122" s="24" t="s">
+        <v>1008</v>
+      </c>
+      <c r="I122" s="24" t="s">
+        <v>1009</v>
+      </c>
+      <c r="J122" s="24" t="s">
         <v>1010</v>
-      </c>
-      <c r="H122" s="24" t="s">
-        <v>1011</v>
-      </c>
-      <c r="I122" s="24" t="s">
-        <v>1012</v>
-      </c>
-      <c r="J122" s="24" t="s">
-        <v>1013</v>
       </c>
     </row>
     <row r="123" spans="1:10" ht="30">
       <c r="A123" s="47" t="s">
-        <v>1313</v>
+        <v>1307</v>
       </c>
       <c r="B123" s="19" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C123" s="23"/>
       <c r="D123" s="23" t="s">
+        <v>468</v>
+      </c>
+      <c r="E123" s="23" t="s">
+        <v>469</v>
+      </c>
+      <c r="F123" s="23" t="s">
         <v>470</v>
       </c>
-      <c r="E123" s="23" t="s">
-        <v>471</v>
-      </c>
-      <c r="F123" s="23" t="s">
-        <v>472</v>
-      </c>
       <c r="G123" s="23" t="s">
+        <v>1011</v>
+      </c>
+      <c r="H123" s="24" t="s">
+        <v>1012</v>
+      </c>
+      <c r="I123" s="24" t="s">
+        <v>1013</v>
+      </c>
+      <c r="J123" s="24" t="s">
         <v>1014</v>
-      </c>
-      <c r="H123" s="24" t="s">
-        <v>1015</v>
-      </c>
-      <c r="I123" s="24" t="s">
-        <v>1016</v>
-      </c>
-      <c r="J123" s="24" t="s">
-        <v>1017</v>
       </c>
     </row>
     <row r="124" spans="1:10" ht="30">
       <c r="A124" s="47" t="s">
-        <v>1314</v>
+        <v>1363</v>
       </c>
       <c r="B124" s="19" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C124" s="23"/>
       <c r="D124" s="23" t="s">
+        <v>472</v>
+      </c>
+      <c r="E124" s="23" t="s">
+        <v>473</v>
+      </c>
+      <c r="F124" s="23" t="s">
         <v>474</v>
       </c>
-      <c r="E124" s="23" t="s">
+      <c r="G124" s="23" t="s">
+        <v>1015</v>
+      </c>
+      <c r="H124" s="24" t="s">
+        <v>1016</v>
+      </c>
+      <c r="I124" s="24" t="s">
+        <v>1017</v>
+      </c>
+      <c r="J124" s="24" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" ht="30">
+      <c r="A125" s="50" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B125" s="19" t="s">
         <v>475</v>
-      </c>
-      <c r="F124" s="23" t="s">
-        <v>476</v>
-      </c>
-      <c r="G124" s="23" t="s">
-        <v>1018</v>
-      </c>
-      <c r="H124" s="24" t="s">
-        <v>1019</v>
-      </c>
-      <c r="I124" s="24" t="s">
-        <v>1020</v>
-      </c>
-      <c r="J124" s="24" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10">
-      <c r="B125" s="19" t="s">
-        <v>477</v>
       </c>
       <c r="C125" s="23"/>
       <c r="D125" s="23" t="s">
+        <v>476</v>
+      </c>
+      <c r="E125" s="23" t="s">
+        <v>477</v>
+      </c>
+      <c r="F125" s="23" t="s">
         <v>478</v>
       </c>
-      <c r="E125" s="23" t="s">
+      <c r="G125" s="23" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H125" s="24" t="s">
+        <v>1020</v>
+      </c>
+      <c r="I125" s="24" t="s">
+        <v>1021</v>
+      </c>
+      <c r="J125" s="24" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" ht="30">
+      <c r="A126" s="52" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B126" s="19" t="s">
         <v>479</v>
-      </c>
-      <c r="F125" s="23" t="s">
-        <v>480</v>
-      </c>
-      <c r="G125" s="23" t="s">
-        <v>1022</v>
-      </c>
-      <c r="H125" s="24" t="s">
-        <v>1023</v>
-      </c>
-      <c r="I125" s="24" t="s">
-        <v>1024</v>
-      </c>
-      <c r="J125" s="24" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10">
-      <c r="B126" s="19" t="s">
-        <v>481</v>
       </c>
       <c r="C126" s="23"/>
       <c r="D126" s="23" t="s">
+        <v>480</v>
+      </c>
+      <c r="E126" s="23" t="s">
+        <v>481</v>
+      </c>
+      <c r="F126" s="23" t="s">
         <v>482</v>
       </c>
-      <c r="E126" s="23" t="s">
+      <c r="G126" s="23" t="s">
+        <v>1023</v>
+      </c>
+      <c r="H126" s="24" t="s">
+        <v>1024</v>
+      </c>
+      <c r="I126" s="24" t="s">
+        <v>1025</v>
+      </c>
+      <c r="J126" s="24" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" ht="30">
+      <c r="A127" s="50" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B127" s="19" t="s">
         <v>483</v>
-      </c>
-      <c r="F126" s="23" t="s">
-        <v>484</v>
-      </c>
-      <c r="G126" s="23" t="s">
-        <v>1026</v>
-      </c>
-      <c r="H126" s="24" t="s">
-        <v>1027</v>
-      </c>
-      <c r="I126" s="24" t="s">
-        <v>1028</v>
-      </c>
-      <c r="J126" s="24" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10">
-      <c r="B127" s="19" t="s">
-        <v>485</v>
       </c>
       <c r="C127" s="23"/>
       <c r="D127" s="23" t="s">
+        <v>484</v>
+      </c>
+      <c r="E127" s="23" t="s">
+        <v>485</v>
+      </c>
+      <c r="F127" s="23" t="s">
         <v>486</v>
       </c>
-      <c r="E127" s="23" t="s">
+      <c r="G127" s="23" t="s">
+        <v>1027</v>
+      </c>
+      <c r="H127" s="24" t="s">
+        <v>1028</v>
+      </c>
+      <c r="I127" s="24" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J127" s="24" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" ht="30">
+      <c r="A128" s="50" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B128" s="19" t="s">
         <v>487</v>
-      </c>
-      <c r="F127" s="23" t="s">
-        <v>488</v>
-      </c>
-      <c r="G127" s="23" t="s">
-        <v>1030</v>
-      </c>
-      <c r="H127" s="24" t="s">
-        <v>1031</v>
-      </c>
-      <c r="I127" s="24" t="s">
-        <v>1032</v>
-      </c>
-      <c r="J127" s="24" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10">
-      <c r="B128" s="19" t="s">
-        <v>489</v>
       </c>
       <c r="C128" s="23"/>
       <c r="D128" s="23" t="s">
+        <v>488</v>
+      </c>
+      <c r="E128" s="23" t="s">
+        <v>489</v>
+      </c>
+      <c r="F128" s="23" t="s">
         <v>490</v>
       </c>
-      <c r="E128" s="23" t="s">
-        <v>491</v>
-      </c>
-      <c r="F128" s="23" t="s">
-        <v>492</v>
-      </c>
       <c r="G128" s="23" t="s">
+        <v>1031</v>
+      </c>
+      <c r="H128" s="24" t="s">
+        <v>1032</v>
+      </c>
+      <c r="I128" s="24" t="s">
+        <v>1033</v>
+      </c>
+      <c r="J128" s="24" t="s">
         <v>1034</v>
-      </c>
-      <c r="H128" s="24" t="s">
-        <v>1035</v>
-      </c>
-      <c r="I128" s="24" t="s">
-        <v>1036</v>
-      </c>
-      <c r="J128" s="24" t="s">
-        <v>1037</v>
       </c>
     </row>
     <row r="129" spans="1:10" ht="30">
       <c r="A129" s="47" t="s">
-        <v>1315</v>
+        <v>1373</v>
       </c>
       <c r="B129" s="19" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C129" s="23"/>
       <c r="D129" s="23" t="s">
+        <v>492</v>
+      </c>
+      <c r="E129" s="23" t="s">
+        <v>493</v>
+      </c>
+      <c r="F129" s="23" t="s">
         <v>494</v>
       </c>
-      <c r="E129" s="23" t="s">
-        <v>495</v>
-      </c>
-      <c r="F129" s="23" t="s">
-        <v>496</v>
-      </c>
       <c r="G129" s="23" t="s">
+        <v>1035</v>
+      </c>
+      <c r="H129" s="24" t="s">
+        <v>1036</v>
+      </c>
+      <c r="I129" s="24" t="s">
+        <v>1037</v>
+      </c>
+      <c r="J129" s="24" t="s">
         <v>1038</v>
-      </c>
-      <c r="H129" s="24" t="s">
-        <v>1039</v>
-      </c>
-      <c r="I129" s="24" t="s">
-        <v>1040</v>
-      </c>
-      <c r="J129" s="24" t="s">
-        <v>1041</v>
       </c>
     </row>
     <row r="130" spans="1:10" ht="30">
       <c r="A130" s="47" t="s">
-        <v>1316</v>
+        <v>1374</v>
       </c>
       <c r="B130" s="19" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C130" s="23"/>
       <c r="D130" s="23" t="s">
+        <v>496</v>
+      </c>
+      <c r="E130" s="23" t="s">
+        <v>497</v>
+      </c>
+      <c r="F130" s="23" t="s">
         <v>498</v>
       </c>
-      <c r="E130" s="23" t="s">
-        <v>499</v>
-      </c>
-      <c r="F130" s="23" t="s">
-        <v>500</v>
-      </c>
       <c r="G130" s="23" t="s">
+        <v>1039</v>
+      </c>
+      <c r="H130" s="24" t="s">
+        <v>1040</v>
+      </c>
+      <c r="I130" s="24" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J130" s="24" t="s">
         <v>1042</v>
-      </c>
-      <c r="H130" s="24" t="s">
-        <v>1043</v>
-      </c>
-      <c r="I130" s="24" t="s">
-        <v>1044</v>
-      </c>
-      <c r="J130" s="24" t="s">
-        <v>1045</v>
       </c>
     </row>
     <row r="131" spans="1:10" ht="30">
       <c r="A131" s="47" t="s">
-        <v>1317</v>
+        <v>1375</v>
       </c>
       <c r="B131" s="19" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C131" s="23"/>
       <c r="D131" s="23" t="s">
+        <v>500</v>
+      </c>
+      <c r="E131" s="23" t="s">
+        <v>501</v>
+      </c>
+      <c r="F131" s="23" t="s">
         <v>502</v>
       </c>
-      <c r="E131" s="23" t="s">
-        <v>503</v>
-      </c>
-      <c r="F131" s="23" t="s">
-        <v>504</v>
-      </c>
       <c r="G131" s="23" t="s">
+        <v>1043</v>
+      </c>
+      <c r="H131" s="24" t="s">
+        <v>1044</v>
+      </c>
+      <c r="I131" s="24" t="s">
+        <v>1045</v>
+      </c>
+      <c r="J131" s="24" t="s">
         <v>1046</v>
-      </c>
-      <c r="H131" s="24" t="s">
-        <v>1047</v>
-      </c>
-      <c r="I131" s="24" t="s">
-        <v>1048</v>
-      </c>
-      <c r="J131" s="24" t="s">
-        <v>1049</v>
       </c>
     </row>
     <row r="132" spans="1:10" ht="30">
       <c r="A132" s="47" t="s">
-        <v>1318</v>
+        <v>1362</v>
       </c>
       <c r="B132" s="19" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C132" s="23"/>
       <c r="D132" s="23" t="s">
+        <v>504</v>
+      </c>
+      <c r="E132" s="23" t="s">
+        <v>505</v>
+      </c>
+      <c r="F132" s="23" t="s">
         <v>506</v>
       </c>
-      <c r="E132" s="23" t="s">
-        <v>507</v>
-      </c>
-      <c r="F132" s="23" t="s">
-        <v>508</v>
-      </c>
       <c r="G132" s="23" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H132" s="24" t="s">
+        <v>1048</v>
+      </c>
+      <c r="I132" s="24" t="s">
+        <v>1049</v>
+      </c>
+      <c r="J132" s="24" t="s">
         <v>1050</v>
-      </c>
-      <c r="H132" s="24" t="s">
-        <v>1051</v>
-      </c>
-      <c r="I132" s="24" t="s">
-        <v>1052</v>
-      </c>
-      <c r="J132" s="24" t="s">
-        <v>1053</v>
       </c>
     </row>
     <row r="133" spans="1:10" customFormat="1">
       <c r="A133" s="47" t="s">
-        <v>1344</v>
+        <v>1332</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C133" s="7"/>
       <c r="D133" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="E133" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="F133" s="7" t="s">
         <v>510</v>
       </c>
-      <c r="E133" s="7" t="s">
-        <v>511</v>
-      </c>
-      <c r="F133" s="7" t="s">
-        <v>512</v>
-      </c>
       <c r="G133" s="38" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="H133" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="I133" s="24" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="J133" s="24" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="134" spans="1:10" customFormat="1">
       <c r="A134" s="47" t="s">
-        <v>1345</v>
+        <v>1333</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C134" s="7"/>
       <c r="D134" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="E134" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F134" s="7" t="s">
         <v>514</v>
       </c>
-      <c r="E134" s="7" t="s">
-        <v>515</v>
-      </c>
-      <c r="F134" s="7" t="s">
-        <v>516</v>
-      </c>
       <c r="G134" s="38" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="H134" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="I134" s="24" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="J134" s="24" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="135" spans="1:10">
       <c r="A135" s="47" t="s">
-        <v>1319</v>
+        <v>1308</v>
       </c>
       <c r="B135" s="19" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C135" s="23"/>
       <c r="D135" s="23" t="s">
+        <v>516</v>
+      </c>
+      <c r="E135" s="23" t="s">
+        <v>517</v>
+      </c>
+      <c r="F135" s="23" t="s">
         <v>518</v>
       </c>
-      <c r="E135" s="23" t="s">
-        <v>519</v>
-      </c>
-      <c r="F135" s="23" t="s">
-        <v>520</v>
-      </c>
       <c r="G135" s="23" t="s">
+        <v>1055</v>
+      </c>
+      <c r="H135" s="24" t="s">
+        <v>1056</v>
+      </c>
+      <c r="I135" s="24" t="s">
+        <v>1057</v>
+      </c>
+      <c r="J135" s="24" t="s">
         <v>1058</v>
-      </c>
-      <c r="H135" s="24" t="s">
-        <v>1059</v>
-      </c>
-      <c r="I135" s="24" t="s">
-        <v>1060</v>
-      </c>
-      <c r="J135" s="24" t="s">
-        <v>1061</v>
       </c>
     </row>
     <row r="136" spans="1:10">
       <c r="B136" s="19" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C136" s="23"/>
       <c r="D136" s="23" t="s">
+        <v>520</v>
+      </c>
+      <c r="E136" s="23" t="s">
+        <v>521</v>
+      </c>
+      <c r="F136" s="23" t="s">
         <v>522</v>
       </c>
-      <c r="E136" s="23" t="s">
-        <v>523</v>
-      </c>
-      <c r="F136" s="23" t="s">
-        <v>524</v>
-      </c>
       <c r="G136" s="23" t="s">
+        <v>1059</v>
+      </c>
+      <c r="H136" s="24" t="s">
+        <v>1060</v>
+      </c>
+      <c r="I136" s="24" t="s">
+        <v>1061</v>
+      </c>
+      <c r="J136" s="24" t="s">
         <v>1062</v>
-      </c>
-      <c r="H136" s="24" t="s">
-        <v>1063</v>
-      </c>
-      <c r="I136" s="24" t="s">
-        <v>1064</v>
-      </c>
-      <c r="J136" s="24" t="s">
-        <v>1065</v>
       </c>
     </row>
     <row r="137" spans="1:10">
       <c r="B137" s="19" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C137" s="23"/>
       <c r="D137" s="23" t="s">
+        <v>524</v>
+      </c>
+      <c r="E137" s="23" t="s">
+        <v>525</v>
+      </c>
+      <c r="F137" s="23" t="s">
         <v>526</v>
       </c>
-      <c r="E137" s="23" t="s">
-        <v>527</v>
-      </c>
-      <c r="F137" s="23" t="s">
-        <v>528</v>
-      </c>
       <c r="G137" s="23" t="s">
+        <v>1063</v>
+      </c>
+      <c r="H137" s="24" t="s">
+        <v>1064</v>
+      </c>
+      <c r="I137" s="24" t="s">
+        <v>1065</v>
+      </c>
+      <c r="J137" s="24" t="s">
         <v>1066</v>
-      </c>
-      <c r="H137" s="24" t="s">
-        <v>1067</v>
-      </c>
-      <c r="I137" s="24" t="s">
-        <v>1068</v>
-      </c>
-      <c r="J137" s="24" t="s">
-        <v>1069</v>
       </c>
     </row>
     <row r="138" spans="1:10">
       <c r="B138" s="19" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C138" s="23"/>
       <c r="D138" s="23" t="s">
+        <v>528</v>
+      </c>
+      <c r="E138" s="23" t="s">
+        <v>529</v>
+      </c>
+      <c r="F138" s="23" t="s">
         <v>530</v>
       </c>
-      <c r="E138" s="23" t="s">
-        <v>531</v>
-      </c>
-      <c r="F138" s="23" t="s">
-        <v>532</v>
-      </c>
       <c r="G138" s="23" t="s">
+        <v>1067</v>
+      </c>
+      <c r="H138" s="24" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I138" s="24" t="s">
+        <v>1069</v>
+      </c>
+      <c r="J138" s="24" t="s">
         <v>1070</v>
-      </c>
-      <c r="H138" s="24" t="s">
-        <v>1071</v>
-      </c>
-      <c r="I138" s="24" t="s">
-        <v>1072</v>
-      </c>
-      <c r="J138" s="24" t="s">
-        <v>1073</v>
       </c>
     </row>
     <row r="139" spans="1:10">
       <c r="B139" s="19" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C139" s="23"/>
       <c r="D139" s="23" t="s">
+        <v>532</v>
+      </c>
+      <c r="E139" s="23" t="s">
+        <v>533</v>
+      </c>
+      <c r="F139" s="23" t="s">
         <v>534</v>
       </c>
-      <c r="E139" s="23" t="s">
-        <v>535</v>
-      </c>
-      <c r="F139" s="23" t="s">
-        <v>536</v>
-      </c>
       <c r="G139" s="23" t="s">
+        <v>1071</v>
+      </c>
+      <c r="H139" s="24" t="s">
+        <v>1072</v>
+      </c>
+      <c r="I139" s="24" t="s">
+        <v>1073</v>
+      </c>
+      <c r="J139" s="24" t="s">
         <v>1074</v>
-      </c>
-      <c r="H139" s="24" t="s">
-        <v>1075</v>
-      </c>
-      <c r="I139" s="24" t="s">
-        <v>1076</v>
-      </c>
-      <c r="J139" s="24" t="s">
-        <v>1077</v>
       </c>
     </row>
     <row r="140" spans="1:10" customFormat="1">
       <c r="A140" s="47" t="s">
-        <v>1320</v>
+        <v>1309</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C140" s="7"/>
       <c r="D140" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="E140" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="F140" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="E140" s="7" t="s">
-        <v>539</v>
-      </c>
-      <c r="F140" s="7" t="s">
-        <v>540</v>
-      </c>
       <c r="G140" s="38" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="H140" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="I140" s="24" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="J140" s="24" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="141" spans="1:10" s="10" customFormat="1">
       <c r="B141" s="9" t="s">
-        <v>1235</v>
+        <v>1231</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" s="2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G141" s="5" t="s">
-        <v>1236</v>
+        <v>1232</v>
       </c>
       <c r="H141" s="37" t="s">
-        <v>1236</v>
+        <v>1232</v>
       </c>
       <c r="I141" s="24"/>
       <c r="J141" s="24"/>
     </row>
     <row r="142" spans="1:10" s="26" customFormat="1">
       <c r="A142" s="47" t="s">
-        <v>1321</v>
+        <v>1310</v>
       </c>
       <c r="B142" s="25" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C142" s="25"/>
       <c r="D142" s="25" t="s">
+        <v>542</v>
+      </c>
+      <c r="E142" s="25" t="s">
+        <v>543</v>
+      </c>
+      <c r="F142" s="23" t="s">
         <v>544</v>
       </c>
-      <c r="E142" s="25" t="s">
-        <v>545</v>
-      </c>
-      <c r="F142" s="23" t="s">
-        <v>546</v>
-      </c>
       <c r="G142" s="23" t="s">
+        <v>1075</v>
+      </c>
+      <c r="H142" s="24" t="s">
+        <v>1076</v>
+      </c>
+      <c r="I142" s="24" t="s">
+        <v>1077</v>
+      </c>
+      <c r="J142" s="24" t="s">
         <v>1078</v>
-      </c>
-      <c r="H142" s="24" t="s">
-        <v>1079</v>
-      </c>
-      <c r="I142" s="24" t="s">
-        <v>1080</v>
-      </c>
-      <c r="J142" s="24" t="s">
-        <v>1081</v>
       </c>
     </row>
     <row r="143" spans="1:10" s="26" customFormat="1">
       <c r="A143" s="10"/>
       <c r="B143" s="25" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C143" s="25"/>
       <c r="D143" s="25" t="s">
+        <v>546</v>
+      </c>
+      <c r="E143" s="25" t="s">
+        <v>547</v>
+      </c>
+      <c r="F143" s="23" t="s">
         <v>548</v>
       </c>
-      <c r="E143" s="25" t="s">
-        <v>549</v>
-      </c>
-      <c r="F143" s="23" t="s">
-        <v>550</v>
-      </c>
       <c r="G143" s="23" t="s">
+        <v>1079</v>
+      </c>
+      <c r="H143" s="24" t="s">
+        <v>1080</v>
+      </c>
+      <c r="I143" s="24" t="s">
+        <v>1081</v>
+      </c>
+      <c r="J143" s="24" t="s">
         <v>1082</v>
-      </c>
-      <c r="H143" s="24" t="s">
-        <v>1083</v>
-      </c>
-      <c r="I143" s="24" t="s">
-        <v>1084</v>
-      </c>
-      <c r="J143" s="24" t="s">
-        <v>1085</v>
       </c>
     </row>
     <row r="144" spans="1:10" s="10" customFormat="1">
       <c r="B144" s="2" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="F144" s="7" t="s">
         <v>552</v>
       </c>
-      <c r="E144" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="F144" s="7" t="s">
-        <v>554</v>
-      </c>
       <c r="G144" s="38" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="H144" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="I144" s="24" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="J144" s="24" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="145" spans="1:10" s="26" customFormat="1" ht="30">
       <c r="A145" s="47" t="s">
-        <v>1322</v>
+        <v>1311</v>
       </c>
       <c r="B145" s="25" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C145" s="25"/>
       <c r="D145" s="25" t="s">
+        <v>554</v>
+      </c>
+      <c r="E145" s="25" t="s">
+        <v>555</v>
+      </c>
+      <c r="F145" s="23" t="s">
         <v>556</v>
       </c>
-      <c r="E145" s="25" t="s">
-        <v>557</v>
-      </c>
-      <c r="F145" s="23" t="s">
-        <v>558</v>
-      </c>
       <c r="G145" s="23" t="s">
+        <v>1086</v>
+      </c>
+      <c r="H145" s="24" t="s">
+        <v>1087</v>
+      </c>
+      <c r="I145" s="24" t="s">
+        <v>1088</v>
+      </c>
+      <c r="J145" s="24" t="s">
         <v>1089</v>
-      </c>
-      <c r="H145" s="24" t="s">
-        <v>1090</v>
-      </c>
-      <c r="I145" s="24" t="s">
-        <v>1091</v>
-      </c>
-      <c r="J145" s="24" t="s">
-        <v>1092</v>
       </c>
     </row>
     <row r="146" spans="1:10" s="26" customFormat="1">
       <c r="A146" s="10"/>
       <c r="B146" s="25" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C146" s="25"/>
       <c r="D146" s="25" t="s">
+        <v>558</v>
+      </c>
+      <c r="E146" s="25" t="s">
+        <v>559</v>
+      </c>
+      <c r="F146" s="23" t="s">
         <v>560</v>
       </c>
-      <c r="E146" s="25" t="s">
-        <v>561</v>
-      </c>
-      <c r="F146" s="23" t="s">
-        <v>562</v>
-      </c>
       <c r="G146" s="23" t="s">
+        <v>1090</v>
+      </c>
+      <c r="H146" s="24" t="s">
+        <v>1091</v>
+      </c>
+      <c r="I146" s="24" t="s">
+        <v>1092</v>
+      </c>
+      <c r="J146" s="24" t="s">
         <v>1093</v>
-      </c>
-      <c r="H146" s="24" t="s">
-        <v>1094</v>
-      </c>
-      <c r="I146" s="24" t="s">
-        <v>1095</v>
-      </c>
-      <c r="J146" s="24" t="s">
-        <v>1096</v>
       </c>
     </row>
     <row r="147" spans="1:10" s="26" customFormat="1">
       <c r="A147" s="10"/>
       <c r="B147" s="25" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C147" s="25"/>
       <c r="D147" s="25" t="s">
+        <v>562</v>
+      </c>
+      <c r="E147" s="25" t="s">
+        <v>563</v>
+      </c>
+      <c r="F147" s="23" t="s">
         <v>564</v>
       </c>
-      <c r="E147" s="25" t="s">
-        <v>565</v>
-      </c>
-      <c r="F147" s="23" t="s">
-        <v>566</v>
-      </c>
       <c r="G147" s="23" t="s">
+        <v>1094</v>
+      </c>
+      <c r="H147" s="24" t="s">
+        <v>1095</v>
+      </c>
+      <c r="I147" s="24" t="s">
+        <v>1096</v>
+      </c>
+      <c r="J147" s="24" t="s">
         <v>1097</v>
-      </c>
-      <c r="H147" s="24" t="s">
-        <v>1098</v>
-      </c>
-      <c r="I147" s="24" t="s">
-        <v>1099</v>
-      </c>
-      <c r="J147" s="24" t="s">
-        <v>1100</v>
       </c>
     </row>
     <row r="148" spans="1:10" s="10" customFormat="1" ht="135">
       <c r="B148" s="2" t="s">
-        <v>1237</v>
+        <v>1233</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="F148" s="7" t="s">
         <v>567</v>
       </c>
-      <c r="E148" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="F148" s="7" t="s">
-        <v>569</v>
-      </c>
       <c r="G148" s="5" t="s">
-        <v>1238</v>
+        <v>1234</v>
       </c>
       <c r="H148" s="37" t="s">
-        <v>1238</v>
+        <v>1234</v>
       </c>
       <c r="I148" s="24"/>
       <c r="J148" s="24"/>
     </row>
     <row r="149" spans="1:10" s="10" customFormat="1" ht="30">
       <c r="A149" s="47" t="s">
-        <v>1323</v>
+        <v>1312</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="F149" s="7" t="s">
         <v>571</v>
       </c>
-      <c r="E149" s="3" t="s">
-        <v>572</v>
-      </c>
-      <c r="F149" s="7" t="s">
-        <v>573</v>
-      </c>
       <c r="G149" s="38" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="H149" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="I149" s="24" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="J149" s="24" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="150" spans="1:10" s="10" customFormat="1" ht="30">
       <c r="A150" s="47" t="s">
-        <v>1324</v>
+        <v>1313</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="F150" s="7" t="s">
         <v>575</v>
       </c>
-      <c r="E150" s="3" t="s">
-        <v>576</v>
-      </c>
-      <c r="F150" s="7" t="s">
-        <v>577</v>
-      </c>
       <c r="G150" s="38" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="H150" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="I150" s="24" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="J150" s="24" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="151" spans="1:10" s="26" customFormat="1" ht="42">
       <c r="A151" s="10"/>
       <c r="B151" s="27" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C151" s="25"/>
       <c r="D151" s="25" t="s">
+        <v>577</v>
+      </c>
+      <c r="E151" s="27" t="s">
+        <v>578</v>
+      </c>
+      <c r="F151" s="23" t="s">
         <v>579</v>
       </c>
-      <c r="E151" s="27" t="s">
-        <v>580</v>
-      </c>
-      <c r="F151" s="23" t="s">
-        <v>581</v>
-      </c>
       <c r="G151" s="23" t="s">
+        <v>1104</v>
+      </c>
+      <c r="H151" s="24" t="s">
+        <v>1105</v>
+      </c>
+      <c r="I151" s="24" t="s">
+        <v>1106</v>
+      </c>
+      <c r="J151" s="24" t="s">
         <v>1107</v>
-      </c>
-      <c r="H151" s="24" t="s">
-        <v>1108</v>
-      </c>
-      <c r="I151" s="24" t="s">
-        <v>1109</v>
-      </c>
-      <c r="J151" s="24" t="s">
-        <v>1110</v>
       </c>
     </row>
     <row r="152" spans="1:10" s="26" customFormat="1" ht="28">
       <c r="A152" s="10"/>
       <c r="B152" s="27" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C152" s="25"/>
       <c r="D152" s="25" t="s">
+        <v>581</v>
+      </c>
+      <c r="E152" s="27" t="s">
+        <v>582</v>
+      </c>
+      <c r="F152" s="23" t="s">
         <v>583</v>
       </c>
-      <c r="E152" s="27" t="s">
-        <v>584</v>
-      </c>
-      <c r="F152" s="23" t="s">
-        <v>585</v>
-      </c>
       <c r="G152" s="23" t="s">
+        <v>1108</v>
+      </c>
+      <c r="H152" s="24" t="s">
+        <v>1109</v>
+      </c>
+      <c r="I152" s="24" t="s">
+        <v>1110</v>
+      </c>
+      <c r="J152" s="24" t="s">
         <v>1111</v>
-      </c>
-      <c r="H152" s="24" t="s">
-        <v>1112</v>
-      </c>
-      <c r="I152" s="24" t="s">
-        <v>1113</v>
-      </c>
-      <c r="J152" s="24" t="s">
-        <v>1114</v>
       </c>
     </row>
     <row r="153" spans="1:10" s="26" customFormat="1" ht="30">
       <c r="A153" s="47" t="s">
-        <v>1325</v>
+        <v>1314</v>
       </c>
       <c r="B153" s="27" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C153" s="25"/>
       <c r="D153" s="25" t="s">
+        <v>585</v>
+      </c>
+      <c r="E153" s="27" t="s">
+        <v>586</v>
+      </c>
+      <c r="F153" s="23" t="s">
         <v>587</v>
       </c>
-      <c r="E153" s="27" t="s">
-        <v>588</v>
-      </c>
-      <c r="F153" s="23" t="s">
-        <v>589</v>
-      </c>
       <c r="G153" s="23" t="s">
+        <v>1112</v>
+      </c>
+      <c r="H153" s="24" t="s">
+        <v>1113</v>
+      </c>
+      <c r="I153" s="24" t="s">
+        <v>1114</v>
+      </c>
+      <c r="J153" s="24" t="s">
         <v>1115</v>
-      </c>
-      <c r="H153" s="24" t="s">
-        <v>1116</v>
-      </c>
-      <c r="I153" s="24" t="s">
-        <v>1117</v>
-      </c>
-      <c r="J153" s="24" t="s">
-        <v>1118</v>
       </c>
     </row>
     <row r="154" spans="1:10" s="26" customFormat="1">
       <c r="A154" s="10"/>
       <c r="B154" s="27" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C154" s="25"/>
       <c r="D154" s="25" t="s">
+        <v>589</v>
+      </c>
+      <c r="E154" s="27" t="s">
+        <v>590</v>
+      </c>
+      <c r="F154" s="23" t="s">
         <v>591</v>
       </c>
-      <c r="E154" s="27" t="s">
-        <v>592</v>
-      </c>
-      <c r="F154" s="23" t="s">
-        <v>593</v>
-      </c>
       <c r="G154" s="23" t="s">
+        <v>1116</v>
+      </c>
+      <c r="H154" s="24" t="s">
+        <v>1117</v>
+      </c>
+      <c r="I154" s="24" t="s">
+        <v>1118</v>
+      </c>
+      <c r="J154" s="24" t="s">
         <v>1119</v>
-      </c>
-      <c r="H154" s="24" t="s">
-        <v>1120</v>
-      </c>
-      <c r="I154" s="24" t="s">
-        <v>1121</v>
-      </c>
-      <c r="J154" s="24" t="s">
-        <v>1122</v>
       </c>
     </row>
     <row r="155" spans="1:10" s="10" customFormat="1">
       <c r="B155" s="3" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="F155" s="7" t="s">
         <v>595</v>
       </c>
-      <c r="E155" s="3" t="s">
-        <v>596</v>
-      </c>
-      <c r="F155" s="7" t="s">
-        <v>597</v>
-      </c>
       <c r="G155" s="38" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="H155" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="I155" s="24" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="J155" s="24" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="156" spans="1:10" s="26" customFormat="1" ht="30">
       <c r="A156" s="47" t="s">
-        <v>1326</v>
+        <v>1315</v>
       </c>
       <c r="B156" s="27" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C156" s="25"/>
       <c r="D156" s="25" t="s">
+        <v>597</v>
+      </c>
+      <c r="E156" s="27" t="s">
+        <v>598</v>
+      </c>
+      <c r="F156" s="23" t="s">
         <v>599</v>
       </c>
-      <c r="E156" s="27" t="s">
-        <v>600</v>
-      </c>
-      <c r="F156" s="23" t="s">
-        <v>601</v>
-      </c>
       <c r="G156" s="23" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H156" s="24" t="s">
+        <v>1124</v>
+      </c>
+      <c r="I156" s="24" t="s">
+        <v>1125</v>
+      </c>
+      <c r="J156" s="24" t="s">
         <v>1126</v>
-      </c>
-      <c r="H156" s="24" t="s">
-        <v>1127</v>
-      </c>
-      <c r="I156" s="24" t="s">
-        <v>1128</v>
-      </c>
-      <c r="J156" s="24" t="s">
-        <v>1129</v>
       </c>
     </row>
     <row r="157" spans="1:10" s="26" customFormat="1" ht="30">
       <c r="A157" s="47" t="s">
-        <v>1327</v>
+        <v>1316</v>
       </c>
       <c r="B157" s="27" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C157" s="25"/>
       <c r="D157" s="25" t="s">
+        <v>601</v>
+      </c>
+      <c r="E157" s="27" t="s">
+        <v>602</v>
+      </c>
+      <c r="F157" s="23" t="s">
         <v>603</v>
       </c>
-      <c r="E157" s="27" t="s">
-        <v>604</v>
-      </c>
-      <c r="F157" s="23" t="s">
-        <v>605</v>
-      </c>
       <c r="G157" s="23" t="s">
+        <v>1127</v>
+      </c>
+      <c r="H157" s="24" t="s">
+        <v>1128</v>
+      </c>
+      <c r="I157" s="24" t="s">
+        <v>1129</v>
+      </c>
+      <c r="J157" s="24" t="s">
         <v>1130</v>
-      </c>
-      <c r="H157" s="24" t="s">
-        <v>1131</v>
-      </c>
-      <c r="I157" s="24" t="s">
-        <v>1132</v>
-      </c>
-      <c r="J157" s="24" t="s">
-        <v>1133</v>
       </c>
     </row>
     <row r="158" spans="1:10" s="26" customFormat="1" ht="42">
       <c r="A158" s="47" t="s">
-        <v>1328</v>
+        <v>1317</v>
       </c>
       <c r="B158" s="27" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C158" s="25"/>
       <c r="D158" s="25" t="s">
+        <v>605</v>
+      </c>
+      <c r="E158" s="27" t="s">
+        <v>606</v>
+      </c>
+      <c r="F158" s="23" t="s">
         <v>607</v>
       </c>
-      <c r="E158" s="27" t="s">
-        <v>608</v>
-      </c>
-      <c r="F158" s="23" t="s">
-        <v>609</v>
-      </c>
       <c r="G158" s="23" t="s">
+        <v>1131</v>
+      </c>
+      <c r="H158" s="24" t="s">
+        <v>1132</v>
+      </c>
+      <c r="I158" s="24" t="s">
+        <v>1133</v>
+      </c>
+      <c r="J158" s="24" t="s">
         <v>1134</v>
-      </c>
-      <c r="H158" s="24" t="s">
-        <v>1135</v>
-      </c>
-      <c r="I158" s="24" t="s">
-        <v>1136</v>
-      </c>
-      <c r="J158" s="24" t="s">
-        <v>1137</v>
       </c>
     </row>
     <row r="159" spans="1:10" s="10" customFormat="1" ht="30">
       <c r="A159" s="47" t="s">
-        <v>1329</v>
+        <v>1318</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="F159" s="7" t="s">
         <v>611</v>
       </c>
-      <c r="E159" s="3" t="s">
-        <v>612</v>
-      </c>
-      <c r="F159" s="7" t="s">
-        <v>613</v>
-      </c>
       <c r="G159" s="38" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="H159" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="I159" s="24" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="J159" s="24" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="160" spans="1:10" s="10" customFormat="1" ht="30">
       <c r="A160" s="47" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="F160" s="7" t="s">
         <v>615</v>
       </c>
-      <c r="E160" s="3" t="s">
-        <v>616</v>
-      </c>
-      <c r="F160" s="7" t="s">
-        <v>617</v>
-      </c>
       <c r="G160" s="38" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="H160" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="I160" s="24" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="J160" s="24" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="161" spans="1:10" s="10" customFormat="1" ht="30">
       <c r="B161" s="3" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="E161" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="F161" s="7" t="s">
         <v>619</v>
       </c>
-      <c r="E161" s="3" t="s">
-        <v>620</v>
-      </c>
-      <c r="F161" s="7" t="s">
-        <v>621</v>
-      </c>
       <c r="G161" s="38" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="H161" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="I161" s="24" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="J161" s="24" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="162" spans="1:10" s="10" customFormat="1" ht="30">
       <c r="A162" s="47" t="s">
-        <v>1331</v>
+        <v>1320</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="E162" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="F162" s="7" t="s">
         <v>623</v>
       </c>
-      <c r="E162" s="3" t="s">
-        <v>624</v>
-      </c>
-      <c r="F162" s="7" t="s">
-        <v>625</v>
-      </c>
       <c r="G162" s="38" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="H162" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="I162" s="24" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="J162" s="24" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="163" spans="1:10" s="10" customFormat="1" ht="30">
       <c r="A163" s="47" t="s">
-        <v>1332</v>
+        <v>1321</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="E163" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="F163" s="7" t="s">
         <v>627</v>
       </c>
-      <c r="E163" s="3" t="s">
-        <v>628</v>
-      </c>
-      <c r="F163" s="7" t="s">
-        <v>629</v>
-      </c>
       <c r="G163" s="38" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="H163" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="I163" s="24" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="J163" s="24" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="164" spans="1:10" s="10" customFormat="1">
       <c r="A164" s="47" t="s">
-        <v>1333</v>
+        <v>1322</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="E164" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="F164" s="7" t="s">
         <v>631</v>
       </c>
-      <c r="E164" s="3" t="s">
-        <v>632</v>
-      </c>
-      <c r="F164" s="7" t="s">
-        <v>633</v>
-      </c>
       <c r="G164" s="38" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="H164" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="I164" s="24" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="J164" s="24" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="165" spans="1:10" s="10" customFormat="1" ht="30">
       <c r="A165" s="47" t="s">
-        <v>1334</v>
+        <v>1323</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="E165" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="F165" s="7" t="s">
         <v>635</v>
       </c>
-      <c r="E165" s="3" t="s">
-        <v>636</v>
-      </c>
-      <c r="F165" s="7" t="s">
-        <v>637</v>
-      </c>
       <c r="G165" s="38" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="H165" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="I165" s="24" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="J165" s="24" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="166" spans="1:10" s="26" customFormat="1">
       <c r="A166" s="47" t="s">
-        <v>1335</v>
+        <v>1324</v>
       </c>
       <c r="B166" s="27" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C166" s="25"/>
       <c r="D166" s="25" t="s">
+        <v>637</v>
+      </c>
+      <c r="E166" s="27" t="s">
+        <v>638</v>
+      </c>
+      <c r="F166" s="23" t="s">
         <v>639</v>
       </c>
-      <c r="E166" s="27" t="s">
-        <v>640</v>
-      </c>
-      <c r="F166" s="23" t="s">
-        <v>641</v>
-      </c>
       <c r="G166" s="23" t="s">
+        <v>1155</v>
+      </c>
+      <c r="H166" s="24" t="s">
+        <v>1156</v>
+      </c>
+      <c r="I166" s="24" t="s">
+        <v>1157</v>
+      </c>
+      <c r="J166" s="24" t="s">
         <v>1158</v>
-      </c>
-      <c r="H166" s="24" t="s">
-        <v>1159</v>
-      </c>
-      <c r="I166" s="24" t="s">
-        <v>1160</v>
-      </c>
-      <c r="J166" s="24" t="s">
-        <v>1161</v>
       </c>
     </row>
     <row r="167" spans="1:10" s="10" customFormat="1" ht="30">
       <c r="A167" s="47" t="s">
-        <v>1336</v>
+        <v>1325</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="E167" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="F167" s="7" t="s">
         <v>643</v>
       </c>
-      <c r="E167" s="3" t="s">
-        <v>644</v>
-      </c>
-      <c r="F167" s="7" t="s">
-        <v>645</v>
-      </c>
       <c r="G167" s="38" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="H167" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="I167" s="24" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="J167" s="24" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="168" spans="1:10" s="10" customFormat="1">
       <c r="A168" s="47" t="s">
-        <v>1337</v>
+        <v>1326</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="E168" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="F168" s="7" t="s">
         <v>647</v>
       </c>
-      <c r="E168" s="3" t="s">
-        <v>648</v>
-      </c>
-      <c r="F168" s="7" t="s">
-        <v>649</v>
-      </c>
       <c r="G168" s="38" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="H168" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="I168" s="24" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="J168" s="24" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="169" spans="1:10" s="26" customFormat="1" ht="168">
       <c r="A169" s="47" t="s">
-        <v>1338</v>
+        <v>1327</v>
       </c>
       <c r="B169" s="27" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C169" s="25"/>
       <c r="D169" s="25" t="s">
+        <v>649</v>
+      </c>
+      <c r="E169" s="27" t="s">
+        <v>650</v>
+      </c>
+      <c r="F169" s="23" t="s">
         <v>651</v>
       </c>
-      <c r="E169" s="27" t="s">
-        <v>652</v>
-      </c>
-      <c r="F169" s="23" t="s">
-        <v>653</v>
-      </c>
       <c r="G169" s="23" t="s">
+        <v>1165</v>
+      </c>
+      <c r="H169" s="24" t="s">
+        <v>1166</v>
+      </c>
+      <c r="I169" s="24" t="s">
+        <v>1167</v>
+      </c>
+      <c r="J169" s="24" t="s">
         <v>1168</v>
-      </c>
-      <c r="H169" s="24" t="s">
-        <v>1169</v>
-      </c>
-      <c r="I169" s="24" t="s">
-        <v>1170</v>
-      </c>
-      <c r="J169" s="24" t="s">
-        <v>1171</v>
       </c>
     </row>
     <row r="170" spans="1:10" s="26" customFormat="1" ht="126">
       <c r="A170" s="47" t="s">
-        <v>1339</v>
+        <v>1328</v>
       </c>
       <c r="B170" s="27" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C170" s="25"/>
       <c r="D170" s="25" t="s">
+        <v>653</v>
+      </c>
+      <c r="E170" s="27" t="s">
+        <v>654</v>
+      </c>
+      <c r="F170" s="23" t="s">
         <v>655</v>
       </c>
-      <c r="E170" s="27" t="s">
-        <v>656</v>
-      </c>
-      <c r="F170" s="23" t="s">
-        <v>657</v>
-      </c>
       <c r="G170" s="23" t="s">
+        <v>1169</v>
+      </c>
+      <c r="H170" s="24" t="s">
+        <v>1170</v>
+      </c>
+      <c r="I170" s="24" t="s">
+        <v>1171</v>
+      </c>
+      <c r="J170" s="24" t="s">
         <v>1172</v>
-      </c>
-      <c r="H170" s="24" t="s">
-        <v>1173</v>
-      </c>
-      <c r="I170" s="24" t="s">
-        <v>1174</v>
-      </c>
-      <c r="J170" s="24" t="s">
-        <v>1175</v>
       </c>
     </row>
     <row r="171" spans="1:10" s="26" customFormat="1">
       <c r="A171" s="10"/>
       <c r="B171" s="27" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C171" s="25"/>
       <c r="D171" s="25" t="s">
+        <v>657</v>
+      </c>
+      <c r="E171" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="F171" s="23" t="s">
         <v>659</v>
       </c>
-      <c r="E171" s="27" t="s">
-        <v>660</v>
-      </c>
-      <c r="F171" s="23" t="s">
-        <v>661</v>
-      </c>
       <c r="G171" s="23" t="s">
+        <v>1173</v>
+      </c>
+      <c r="H171" s="24" t="s">
+        <v>1174</v>
+      </c>
+      <c r="I171" s="24" t="s">
+        <v>1175</v>
+      </c>
+      <c r="J171" s="24" t="s">
         <v>1176</v>
-      </c>
-      <c r="H171" s="24" t="s">
-        <v>1177</v>
-      </c>
-      <c r="I171" s="24" t="s">
-        <v>1178</v>
-      </c>
-      <c r="J171" s="24" t="s">
-        <v>1179</v>
       </c>
     </row>
     <row r="172" spans="1:10" s="26" customFormat="1" ht="98">
       <c r="A172" s="47" t="s">
-        <v>1340</v>
+        <v>1329</v>
       </c>
       <c r="B172" s="27" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C172" s="25"/>
       <c r="D172" s="25" t="s">
+        <v>661</v>
+      </c>
+      <c r="E172" s="27" t="s">
+        <v>662</v>
+      </c>
+      <c r="F172" s="23" t="s">
         <v>663</v>
       </c>
-      <c r="E172" s="27" t="s">
-        <v>664</v>
-      </c>
-      <c r="F172" s="23" t="s">
-        <v>665</v>
-      </c>
       <c r="G172" s="23" t="s">
+        <v>1177</v>
+      </c>
+      <c r="H172" s="24" t="s">
+        <v>1178</v>
+      </c>
+      <c r="I172" s="24" t="s">
+        <v>1179</v>
+      </c>
+      <c r="J172" s="24" t="s">
         <v>1180</v>
-      </c>
-      <c r="H172" s="24" t="s">
-        <v>1181</v>
-      </c>
-      <c r="I172" s="24" t="s">
-        <v>1182</v>
-      </c>
-      <c r="J172" s="24" t="s">
-        <v>1183</v>
       </c>
     </row>
     <row r="173" spans="1:10" s="11" customFormat="1">
       <c r="A173" s="47" t="s">
-        <v>1288</v>
+        <v>1284</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="E173" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="F173" s="7" t="s">
         <v>667</v>
       </c>
-      <c r="E173" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="F173" s="7" t="s">
-        <v>669</v>
-      </c>
       <c r="G173" s="38" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="H173" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="I173" s="24" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="J173" s="24" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
     </row>
     <row r="174" spans="1:10" s="11" customFormat="1">
       <c r="A174" s="47" t="s">
-        <v>1341</v>
+        <v>1330</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="E174" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="F174" s="7" t="s">
         <v>671</v>
       </c>
-      <c r="E174" s="3" t="s">
-        <v>672</v>
-      </c>
-      <c r="F174" s="7" t="s">
-        <v>673</v>
-      </c>
       <c r="G174" s="38" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
       <c r="H174" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
       <c r="I174" s="24" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="J174" s="24" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="175" spans="1:10" s="28" customFormat="1" ht="28">
       <c r="A175" s="11"/>
       <c r="B175" s="27" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C175" s="27"/>
       <c r="D175" s="25" t="s">
+        <v>673</v>
+      </c>
+      <c r="E175" s="27" t="s">
+        <v>674</v>
+      </c>
+      <c r="F175" s="23" t="s">
         <v>675</v>
       </c>
-      <c r="E175" s="27" t="s">
-        <v>676</v>
-      </c>
-      <c r="F175" s="23" t="s">
-        <v>677</v>
-      </c>
       <c r="G175" s="23" t="s">
+        <v>1184</v>
+      </c>
+      <c r="H175" s="24" t="s">
+        <v>1185</v>
+      </c>
+      <c r="I175" s="24" t="s">
+        <v>1186</v>
+      </c>
+      <c r="J175" s="24" t="s">
         <v>1187</v>
-      </c>
-      <c r="H175" s="24" t="s">
-        <v>1188</v>
-      </c>
-      <c r="I175" s="24" t="s">
-        <v>1189</v>
-      </c>
-      <c r="J175" s="24" t="s">
-        <v>1190</v>
       </c>
     </row>
     <row r="176" spans="1:10" s="18" customFormat="1">
       <c r="B176" s="9" t="s">
-        <v>1239</v>
+        <v>1235</v>
       </c>
       <c r="C176" s="14"/>
       <c r="D176" s="13" t="s">
+        <v>676</v>
+      </c>
+      <c r="E176" s="13" t="s">
+        <v>677</v>
+      </c>
+      <c r="F176" s="8" t="s">
         <v>678</v>
       </c>
-      <c r="E176" s="13" t="s">
-        <v>679</v>
-      </c>
-      <c r="F176" s="8" t="s">
-        <v>680</v>
-      </c>
       <c r="G176" s="5" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="H176" s="37" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="I176" s="24"/>
       <c r="J176" s="24"/>
@@ -11006,76 +11192,97 @@
     <row r="177" spans="1:10" s="32" customFormat="1">
       <c r="A177" s="18"/>
       <c r="B177" s="25" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C177" s="29"/>
       <c r="D177" s="30" t="s">
+        <v>680</v>
+      </c>
+      <c r="E177" s="29" t="s">
+        <v>681</v>
+      </c>
+      <c r="F177" s="31" t="s">
         <v>682</v>
       </c>
-      <c r="E177" s="29" t="s">
-        <v>683</v>
-      </c>
-      <c r="F177" s="31" t="s">
-        <v>684</v>
-      </c>
       <c r="G177" s="23" t="s">
+        <v>1188</v>
+      </c>
+      <c r="H177" s="24" t="s">
+        <v>1189</v>
+      </c>
+      <c r="I177" s="24" t="s">
+        <v>1190</v>
+      </c>
+      <c r="J177" s="24" t="s">
         <v>1191</v>
-      </c>
-      <c r="H177" s="24" t="s">
-        <v>1192</v>
-      </c>
-      <c r="I177" s="24" t="s">
-        <v>1193</v>
-      </c>
-      <c r="J177" s="24" t="s">
-        <v>1194</v>
       </c>
     </row>
     <row r="178" spans="1:10" s="11" customFormat="1" ht="30">
       <c r="B178" s="12" t="s">
-        <v>1241</v>
+        <v>1237</v>
       </c>
       <c r="C178" s="16"/>
       <c r="D178" s="12" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="E178" s="17" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="F178" s="17" t="s">
         <v>20</v>
       </c>
       <c r="G178" s="5" t="s">
-        <v>1242</v>
+        <v>1238</v>
       </c>
       <c r="H178" s="37" t="s">
-        <v>1242</v>
+        <v>1238</v>
       </c>
       <c r="I178" s="24"/>
       <c r="J178" s="24"/>
     </row>
     <row r="179" spans="1:10" s="11" customFormat="1" ht="75">
       <c r="B179" s="2" t="s">
-        <v>1243</v>
+        <v>1239</v>
       </c>
       <c r="C179" s="14"/>
       <c r="D179" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="E179" s="7" t="s">
+        <v>686</v>
+      </c>
+      <c r="F179" s="15" t="s">
         <v>687</v>
       </c>
-      <c r="E179" s="7" t="s">
-        <v>688</v>
-      </c>
-      <c r="F179" s="15" t="s">
-        <v>689</v>
-      </c>
       <c r="G179" s="5" t="s">
-        <v>1244</v>
+        <v>1240</v>
       </c>
       <c r="H179" s="37" t="s">
-        <v>1244</v>
+        <v>1240</v>
       </c>
       <c r="I179" s="24"/>
       <c r="J179" s="24"/>
+    </row>
+    <row r="180" spans="1:10">
+      <c r="A180" s="50" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B180" s="49" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C180" s="51"/>
+      <c r="D180" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="E180" s="49" t="s">
+        <v>1338</v>
+      </c>
+      <c r="F180" s="24" t="s">
+        <v>1337</v>
+      </c>
+      <c r="G180" s="49" t="s">
+        <v>1336</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="B1:J179">
